--- a/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
+++ b/InputData/io-model/BEbIC/BAU Employment by ISIC Code.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1890" yWindow="1635" windowWidth="24090" windowHeight="14880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD EMPN" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Filtered OECD Data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BEbIC" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BEbIC" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
@@ -21,7 +22,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,8 +116,14 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <color indexed="81"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -153,8 +160,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -169,6 +188,19 @@
       <right style="thin">
         <color rgb="FFC0C0C0"/>
       </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FFC0C0C0"/>
       </top>
@@ -248,6 +280,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFC0C0C0"/>
@@ -277,6 +322,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -291,7 +347,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -333,29 +389,164 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -365,6 +556,246 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MyOECD</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="J7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="L7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="M7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N7" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="C10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="J10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="K10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="L10" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="M19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N19" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="D20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="L20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">c: Estimates based on national Supply and Use tables (SUTs) or Input-Output tables </t>
+      </text>
+    </comment>
+    <comment ref="M20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="M29" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N29" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="M31" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+    <comment ref="N31" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">b: Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4) </t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,15 +1065,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="77.5" customWidth="1" min="2" max="2"/>
+    <col width="77.5703125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,69 +1089,131 @@
           <t>Source:</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OECD</t>
+      <c r="B3" s="31" t="inlineStr">
+        <is>
+          <t>Most Industries</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="n">
-        <v>2018</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OECD</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Trade in Employment (TiM) 2018 Edition (ISIC Rev. 4)</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>2018</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trade in Employment (TiM) 2018 Edition (ISIC Rev. 4)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTSI4_2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Variable: EMPN</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>The OECD chart includes various subtotals that we must exclude to avoid double-counting.</t>
+      <c r="B10" s="31" t="inlineStr">
+        <is>
+          <t>Chemicals and Pharmaceuticals Industries</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The "Filtered OECD Data" tab removes columns for total and subtotals, leaving the columns</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OECD</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" s="2" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>STAN Database for Structural Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>https://stats.oecd.org/Index.aspx?DataSetCode=STANI4_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Variable: EMPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>The OECD chart includes various subtotals that we must exclude to avoid double-counting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The "Filtered OECD Data" tab removes columns for total and subtotals, leaving the columns</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>that match the ISIC categories used in OECD input-output tables.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>We divide up chemicals and pharmaceuticals (ISIC 20T21) into separate chemicals (ISIC 20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>and pharmaceuticals (ISIC 21) industries using data from a different OECD database.</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B7" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -735,22 +1228,21 @@
   </sheetPr>
   <dimension ref="A1:BE74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AC2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
-    <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="6" min="54" max="54"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
-    <col width="9.1640625" customWidth="1" style="6" min="58" max="58"/>
-    <col width="9.1640625" customWidth="1" style="6" min="59" max="16384"/>
+    <col width="27.42578125" customWidth="1" style="6" min="1" max="1"/>
+    <col width="2.42578125" customWidth="1" style="6" min="2" max="2"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="4" max="53"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="54" max="54"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="55" max="55"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="6" min="56" max="56"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="6" min="57" max="57"/>
+    <col width="9.140625" customWidth="1" style="6" min="58" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -771,789 +1263,789 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="22" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="61" t="inlineStr">
         <is>
           <t>Indicator</t>
         </is>
       </c>
-      <c r="B3" s="18" t="n"/>
-      <c r="C3" s="30" t="inlineStr">
+      <c r="B3" s="62" t="n"/>
+      <c r="C3" s="63" t="inlineStr">
         <is>
           <t>EMPN: Employment</t>
         </is>
       </c>
-      <c r="D3" s="21" t="n"/>
-      <c r="E3" s="21" t="n"/>
-      <c r="F3" s="21" t="n"/>
-      <c r="G3" s="21" t="n"/>
-      <c r="H3" s="21" t="n"/>
-      <c r="I3" s="21" t="n"/>
-      <c r="J3" s="21" t="n"/>
-      <c r="K3" s="21" t="n"/>
-      <c r="L3" s="21" t="n"/>
-      <c r="M3" s="21" t="n"/>
-      <c r="N3" s="21" t="n"/>
-      <c r="O3" s="21" t="n"/>
-      <c r="P3" s="21" t="n"/>
-      <c r="Q3" s="21" t="n"/>
-      <c r="R3" s="21" t="n"/>
-      <c r="S3" s="21" t="n"/>
-      <c r="T3" s="21" t="n"/>
-      <c r="U3" s="21" t="n"/>
-      <c r="V3" s="21" t="n"/>
-      <c r="W3" s="21" t="n"/>
-      <c r="X3" s="21" t="n"/>
-      <c r="Y3" s="21" t="n"/>
-      <c r="Z3" s="21" t="n"/>
-      <c r="AA3" s="21" t="n"/>
-      <c r="AB3" s="21" t="n"/>
-      <c r="AC3" s="21" t="n"/>
-      <c r="AD3" s="21" t="n"/>
-      <c r="AE3" s="21" t="n"/>
-      <c r="AF3" s="21" t="n"/>
-      <c r="AG3" s="21" t="n"/>
-      <c r="AH3" s="21" t="n"/>
-      <c r="AI3" s="21" t="n"/>
-      <c r="AJ3" s="21" t="n"/>
-      <c r="AK3" s="21" t="n"/>
-      <c r="AL3" s="21" t="n"/>
-      <c r="AM3" s="21" t="n"/>
-      <c r="AN3" s="21" t="n"/>
-      <c r="AO3" s="21" t="n"/>
-      <c r="AP3" s="21" t="n"/>
-      <c r="AQ3" s="21" t="n"/>
-      <c r="AR3" s="21" t="n"/>
-      <c r="AS3" s="21" t="n"/>
-      <c r="AT3" s="21" t="n"/>
-      <c r="AU3" s="21" t="n"/>
-      <c r="AV3" s="21" t="n"/>
-      <c r="AW3" s="21" t="n"/>
-      <c r="AX3" s="21" t="n"/>
-      <c r="AY3" s="21" t="n"/>
-      <c r="AZ3" s="21" t="n"/>
-      <c r="BA3" s="21" t="n"/>
-      <c r="BB3" s="21" t="n"/>
-      <c r="BC3" s="21" t="n"/>
-      <c r="BD3" s="21" t="n"/>
-      <c r="BE3" s="18" t="n"/>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="64" t="n"/>
+      <c r="I3" s="64" t="n"/>
+      <c r="J3" s="64" t="n"/>
+      <c r="K3" s="64" t="n"/>
+      <c r="L3" s="64" t="n"/>
+      <c r="M3" s="64" t="n"/>
+      <c r="N3" s="64" t="n"/>
+      <c r="O3" s="64" t="n"/>
+      <c r="P3" s="64" t="n"/>
+      <c r="Q3" s="64" t="n"/>
+      <c r="R3" s="64" t="n"/>
+      <c r="S3" s="64" t="n"/>
+      <c r="T3" s="64" t="n"/>
+      <c r="U3" s="64" t="n"/>
+      <c r="V3" s="64" t="n"/>
+      <c r="W3" s="64" t="n"/>
+      <c r="X3" s="64" t="n"/>
+      <c r="Y3" s="64" t="n"/>
+      <c r="Z3" s="64" t="n"/>
+      <c r="AA3" s="64" t="n"/>
+      <c r="AB3" s="64" t="n"/>
+      <c r="AC3" s="64" t="n"/>
+      <c r="AD3" s="64" t="n"/>
+      <c r="AE3" s="64" t="n"/>
+      <c r="AF3" s="64" t="n"/>
+      <c r="AG3" s="64" t="n"/>
+      <c r="AH3" s="64" t="n"/>
+      <c r="AI3" s="64" t="n"/>
+      <c r="AJ3" s="64" t="n"/>
+      <c r="AK3" s="64" t="n"/>
+      <c r="AL3" s="64" t="n"/>
+      <c r="AM3" s="64" t="n"/>
+      <c r="AN3" s="64" t="n"/>
+      <c r="AO3" s="64" t="n"/>
+      <c r="AP3" s="64" t="n"/>
+      <c r="AQ3" s="64" t="n"/>
+      <c r="AR3" s="64" t="n"/>
+      <c r="AS3" s="64" t="n"/>
+      <c r="AT3" s="64" t="n"/>
+      <c r="AU3" s="64" t="n"/>
+      <c r="AV3" s="64" t="n"/>
+      <c r="AW3" s="64" t="n"/>
+      <c r="AX3" s="64" t="n"/>
+      <c r="AY3" s="64" t="n"/>
+      <c r="AZ3" s="64" t="n"/>
+      <c r="BA3" s="64" t="n"/>
+      <c r="BB3" s="64" t="n"/>
+      <c r="BC3" s="64" t="n"/>
+      <c r="BD3" s="64" t="n"/>
+      <c r="BE3" s="62" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="22" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="61" t="inlineStr">
         <is>
           <t>Partner</t>
         </is>
       </c>
-      <c r="B4" s="18" t="n"/>
-      <c r="C4" s="23" t="inlineStr">
+      <c r="B4" s="62" t="n"/>
+      <c r="C4" s="65" t="inlineStr">
         <is>
           <t>WLD: World</t>
         </is>
       </c>
-      <c r="D4" s="21" t="n"/>
-      <c r="E4" s="21" t="n"/>
-      <c r="F4" s="21" t="n"/>
-      <c r="G4" s="21" t="n"/>
-      <c r="H4" s="21" t="n"/>
-      <c r="I4" s="21" t="n"/>
-      <c r="J4" s="21" t="n"/>
-      <c r="K4" s="21" t="n"/>
-      <c r="L4" s="21" t="n"/>
-      <c r="M4" s="21" t="n"/>
-      <c r="N4" s="21" t="n"/>
-      <c r="O4" s="21" t="n"/>
-      <c r="P4" s="21" t="n"/>
-      <c r="Q4" s="21" t="n"/>
-      <c r="R4" s="21" t="n"/>
-      <c r="S4" s="21" t="n"/>
-      <c r="T4" s="21" t="n"/>
-      <c r="U4" s="21" t="n"/>
-      <c r="V4" s="21" t="n"/>
-      <c r="W4" s="21" t="n"/>
-      <c r="X4" s="21" t="n"/>
-      <c r="Y4" s="21" t="n"/>
-      <c r="Z4" s="21" t="n"/>
-      <c r="AA4" s="21" t="n"/>
-      <c r="AB4" s="21" t="n"/>
-      <c r="AC4" s="21" t="n"/>
-      <c r="AD4" s="21" t="n"/>
-      <c r="AE4" s="21" t="n"/>
-      <c r="AF4" s="21" t="n"/>
-      <c r="AG4" s="21" t="n"/>
-      <c r="AH4" s="21" t="n"/>
-      <c r="AI4" s="21" t="n"/>
-      <c r="AJ4" s="21" t="n"/>
-      <c r="AK4" s="21" t="n"/>
-      <c r="AL4" s="21" t="n"/>
-      <c r="AM4" s="21" t="n"/>
-      <c r="AN4" s="21" t="n"/>
-      <c r="AO4" s="21" t="n"/>
-      <c r="AP4" s="21" t="n"/>
-      <c r="AQ4" s="21" t="n"/>
-      <c r="AR4" s="21" t="n"/>
-      <c r="AS4" s="21" t="n"/>
-      <c r="AT4" s="21" t="n"/>
-      <c r="AU4" s="21" t="n"/>
-      <c r="AV4" s="21" t="n"/>
-      <c r="AW4" s="21" t="n"/>
-      <c r="AX4" s="21" t="n"/>
-      <c r="AY4" s="21" t="n"/>
-      <c r="AZ4" s="21" t="n"/>
-      <c r="BA4" s="21" t="n"/>
-      <c r="BB4" s="21" t="n"/>
-      <c r="BC4" s="21" t="n"/>
-      <c r="BD4" s="21" t="n"/>
-      <c r="BE4" s="18" t="n"/>
+      <c r="D4" s="64" t="n"/>
+      <c r="E4" s="64" t="n"/>
+      <c r="F4" s="64" t="n"/>
+      <c r="G4" s="64" t="n"/>
+      <c r="H4" s="64" t="n"/>
+      <c r="I4" s="64" t="n"/>
+      <c r="J4" s="64" t="n"/>
+      <c r="K4" s="64" t="n"/>
+      <c r="L4" s="64" t="n"/>
+      <c r="M4" s="64" t="n"/>
+      <c r="N4" s="64" t="n"/>
+      <c r="O4" s="64" t="n"/>
+      <c r="P4" s="64" t="n"/>
+      <c r="Q4" s="64" t="n"/>
+      <c r="R4" s="64" t="n"/>
+      <c r="S4" s="64" t="n"/>
+      <c r="T4" s="64" t="n"/>
+      <c r="U4" s="64" t="n"/>
+      <c r="V4" s="64" t="n"/>
+      <c r="W4" s="64" t="n"/>
+      <c r="X4" s="64" t="n"/>
+      <c r="Y4" s="64" t="n"/>
+      <c r="Z4" s="64" t="n"/>
+      <c r="AA4" s="64" t="n"/>
+      <c r="AB4" s="64" t="n"/>
+      <c r="AC4" s="64" t="n"/>
+      <c r="AD4" s="64" t="n"/>
+      <c r="AE4" s="64" t="n"/>
+      <c r="AF4" s="64" t="n"/>
+      <c r="AG4" s="64" t="n"/>
+      <c r="AH4" s="64" t="n"/>
+      <c r="AI4" s="64" t="n"/>
+      <c r="AJ4" s="64" t="n"/>
+      <c r="AK4" s="64" t="n"/>
+      <c r="AL4" s="64" t="n"/>
+      <c r="AM4" s="64" t="n"/>
+      <c r="AN4" s="64" t="n"/>
+      <c r="AO4" s="64" t="n"/>
+      <c r="AP4" s="64" t="n"/>
+      <c r="AQ4" s="64" t="n"/>
+      <c r="AR4" s="64" t="n"/>
+      <c r="AS4" s="64" t="n"/>
+      <c r="AT4" s="64" t="n"/>
+      <c r="AU4" s="64" t="n"/>
+      <c r="AV4" s="64" t="n"/>
+      <c r="AW4" s="64" t="n"/>
+      <c r="AX4" s="64" t="n"/>
+      <c r="AY4" s="64" t="n"/>
+      <c r="AZ4" s="64" t="n"/>
+      <c r="BA4" s="64" t="n"/>
+      <c r="BB4" s="64" t="n"/>
+      <c r="BC4" s="64" t="n"/>
+      <c r="BD4" s="64" t="n"/>
+      <c r="BE4" s="62" t="n"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="22" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="61" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n"/>
-      <c r="C5" s="23" t="inlineStr">
+      <c r="B5" s="62" t="n"/>
+      <c r="C5" s="65" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="21" t="n"/>
-      <c r="E5" s="21" t="n"/>
-      <c r="F5" s="21" t="n"/>
-      <c r="G5" s="21" t="n"/>
-      <c r="H5" s="21" t="n"/>
-      <c r="I5" s="21" t="n"/>
-      <c r="J5" s="21" t="n"/>
-      <c r="K5" s="21" t="n"/>
-      <c r="L5" s="21" t="n"/>
-      <c r="M5" s="21" t="n"/>
-      <c r="N5" s="21" t="n"/>
-      <c r="O5" s="21" t="n"/>
-      <c r="P5" s="21" t="n"/>
-      <c r="Q5" s="21" t="n"/>
-      <c r="R5" s="21" t="n"/>
-      <c r="S5" s="21" t="n"/>
-      <c r="T5" s="21" t="n"/>
-      <c r="U5" s="21" t="n"/>
-      <c r="V5" s="21" t="n"/>
-      <c r="W5" s="21" t="n"/>
-      <c r="X5" s="21" t="n"/>
-      <c r="Y5" s="21" t="n"/>
-      <c r="Z5" s="21" t="n"/>
-      <c r="AA5" s="21" t="n"/>
-      <c r="AB5" s="21" t="n"/>
-      <c r="AC5" s="21" t="n"/>
-      <c r="AD5" s="21" t="n"/>
-      <c r="AE5" s="21" t="n"/>
-      <c r="AF5" s="21" t="n"/>
-      <c r="AG5" s="21" t="n"/>
-      <c r="AH5" s="21" t="n"/>
-      <c r="AI5" s="21" t="n"/>
-      <c r="AJ5" s="21" t="n"/>
-      <c r="AK5" s="21" t="n"/>
-      <c r="AL5" s="21" t="n"/>
-      <c r="AM5" s="21" t="n"/>
-      <c r="AN5" s="21" t="n"/>
-      <c r="AO5" s="21" t="n"/>
-      <c r="AP5" s="21" t="n"/>
-      <c r="AQ5" s="21" t="n"/>
-      <c r="AR5" s="21" t="n"/>
-      <c r="AS5" s="21" t="n"/>
-      <c r="AT5" s="21" t="n"/>
-      <c r="AU5" s="21" t="n"/>
-      <c r="AV5" s="21" t="n"/>
-      <c r="AW5" s="21" t="n"/>
-      <c r="AX5" s="21" t="n"/>
-      <c r="AY5" s="21" t="n"/>
-      <c r="AZ5" s="21" t="n"/>
-      <c r="BA5" s="21" t="n"/>
-      <c r="BB5" s="21" t="n"/>
-      <c r="BC5" s="21" t="n"/>
-      <c r="BD5" s="21" t="n"/>
-      <c r="BE5" s="18" t="n"/>
+      <c r="D5" s="64" t="n"/>
+      <c r="E5" s="64" t="n"/>
+      <c r="F5" s="64" t="n"/>
+      <c r="G5" s="64" t="n"/>
+      <c r="H5" s="64" t="n"/>
+      <c r="I5" s="64" t="n"/>
+      <c r="J5" s="64" t="n"/>
+      <c r="K5" s="64" t="n"/>
+      <c r="L5" s="64" t="n"/>
+      <c r="M5" s="64" t="n"/>
+      <c r="N5" s="64" t="n"/>
+      <c r="O5" s="64" t="n"/>
+      <c r="P5" s="64" t="n"/>
+      <c r="Q5" s="64" t="n"/>
+      <c r="R5" s="64" t="n"/>
+      <c r="S5" s="64" t="n"/>
+      <c r="T5" s="64" t="n"/>
+      <c r="U5" s="64" t="n"/>
+      <c r="V5" s="64" t="n"/>
+      <c r="W5" s="64" t="n"/>
+      <c r="X5" s="64" t="n"/>
+      <c r="Y5" s="64" t="n"/>
+      <c r="Z5" s="64" t="n"/>
+      <c r="AA5" s="64" t="n"/>
+      <c r="AB5" s="64" t="n"/>
+      <c r="AC5" s="64" t="n"/>
+      <c r="AD5" s="64" t="n"/>
+      <c r="AE5" s="64" t="n"/>
+      <c r="AF5" s="64" t="n"/>
+      <c r="AG5" s="64" t="n"/>
+      <c r="AH5" s="64" t="n"/>
+      <c r="AI5" s="64" t="n"/>
+      <c r="AJ5" s="64" t="n"/>
+      <c r="AK5" s="64" t="n"/>
+      <c r="AL5" s="64" t="n"/>
+      <c r="AM5" s="64" t="n"/>
+      <c r="AN5" s="64" t="n"/>
+      <c r="AO5" s="64" t="n"/>
+      <c r="AP5" s="64" t="n"/>
+      <c r="AQ5" s="64" t="n"/>
+      <c r="AR5" s="64" t="n"/>
+      <c r="AS5" s="64" t="n"/>
+      <c r="AT5" s="64" t="n"/>
+      <c r="AU5" s="64" t="n"/>
+      <c r="AV5" s="64" t="n"/>
+      <c r="AW5" s="64" t="n"/>
+      <c r="AX5" s="64" t="n"/>
+      <c r="AY5" s="64" t="n"/>
+      <c r="AZ5" s="64" t="n"/>
+      <c r="BA5" s="64" t="n"/>
+      <c r="BB5" s="64" t="n"/>
+      <c r="BC5" s="64" t="n"/>
+      <c r="BD5" s="64" t="n"/>
+      <c r="BE5" s="62" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="22" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="61" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="18" t="n"/>
-      <c r="C6" s="23" t="inlineStr">
+      <c r="B6" s="62" t="n"/>
+      <c r="C6" s="65" t="inlineStr">
         <is>
           <t>Persons, Thousands</t>
         </is>
       </c>
-      <c r="D6" s="21" t="n"/>
-      <c r="E6" s="21" t="n"/>
-      <c r="F6" s="21" t="n"/>
-      <c r="G6" s="21" t="n"/>
-      <c r="H6" s="21" t="n"/>
-      <c r="I6" s="21" t="n"/>
-      <c r="J6" s="21" t="n"/>
-      <c r="K6" s="21" t="n"/>
-      <c r="L6" s="21" t="n"/>
-      <c r="M6" s="21" t="n"/>
-      <c r="N6" s="21" t="n"/>
-      <c r="O6" s="21" t="n"/>
-      <c r="P6" s="21" t="n"/>
-      <c r="Q6" s="21" t="n"/>
-      <c r="R6" s="21" t="n"/>
-      <c r="S6" s="21" t="n"/>
-      <c r="T6" s="21" t="n"/>
-      <c r="U6" s="21" t="n"/>
-      <c r="V6" s="21" t="n"/>
-      <c r="W6" s="21" t="n"/>
-      <c r="X6" s="21" t="n"/>
-      <c r="Y6" s="21" t="n"/>
-      <c r="Z6" s="21" t="n"/>
-      <c r="AA6" s="21" t="n"/>
-      <c r="AB6" s="21" t="n"/>
-      <c r="AC6" s="21" t="n"/>
-      <c r="AD6" s="21" t="n"/>
-      <c r="AE6" s="21" t="n"/>
-      <c r="AF6" s="21" t="n"/>
-      <c r="AG6" s="21" t="n"/>
-      <c r="AH6" s="21" t="n"/>
-      <c r="AI6" s="21" t="n"/>
-      <c r="AJ6" s="21" t="n"/>
-      <c r="AK6" s="21" t="n"/>
-      <c r="AL6" s="21" t="n"/>
-      <c r="AM6" s="21" t="n"/>
-      <c r="AN6" s="21" t="n"/>
-      <c r="AO6" s="21" t="n"/>
-      <c r="AP6" s="21" t="n"/>
-      <c r="AQ6" s="21" t="n"/>
-      <c r="AR6" s="21" t="n"/>
-      <c r="AS6" s="21" t="n"/>
-      <c r="AT6" s="21" t="n"/>
-      <c r="AU6" s="21" t="n"/>
-      <c r="AV6" s="21" t="n"/>
-      <c r="AW6" s="21" t="n"/>
-      <c r="AX6" s="21" t="n"/>
-      <c r="AY6" s="21" t="n"/>
-      <c r="AZ6" s="21" t="n"/>
-      <c r="BA6" s="21" t="n"/>
-      <c r="BB6" s="21" t="n"/>
-      <c r="BC6" s="21" t="n"/>
-      <c r="BD6" s="21" t="n"/>
-      <c r="BE6" s="18" t="n"/>
+      <c r="D6" s="64" t="n"/>
+      <c r="E6" s="64" t="n"/>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="64" t="n"/>
+      <c r="H6" s="64" t="n"/>
+      <c r="I6" s="64" t="n"/>
+      <c r="J6" s="64" t="n"/>
+      <c r="K6" s="64" t="n"/>
+      <c r="L6" s="64" t="n"/>
+      <c r="M6" s="64" t="n"/>
+      <c r="N6" s="64" t="n"/>
+      <c r="O6" s="64" t="n"/>
+      <c r="P6" s="64" t="n"/>
+      <c r="Q6" s="64" t="n"/>
+      <c r="R6" s="64" t="n"/>
+      <c r="S6" s="64" t="n"/>
+      <c r="T6" s="64" t="n"/>
+      <c r="U6" s="64" t="n"/>
+      <c r="V6" s="64" t="n"/>
+      <c r="W6" s="64" t="n"/>
+      <c r="X6" s="64" t="n"/>
+      <c r="Y6" s="64" t="n"/>
+      <c r="Z6" s="64" t="n"/>
+      <c r="AA6" s="64" t="n"/>
+      <c r="AB6" s="64" t="n"/>
+      <c r="AC6" s="64" t="n"/>
+      <c r="AD6" s="64" t="n"/>
+      <c r="AE6" s="64" t="n"/>
+      <c r="AF6" s="64" t="n"/>
+      <c r="AG6" s="64" t="n"/>
+      <c r="AH6" s="64" t="n"/>
+      <c r="AI6" s="64" t="n"/>
+      <c r="AJ6" s="64" t="n"/>
+      <c r="AK6" s="64" t="n"/>
+      <c r="AL6" s="64" t="n"/>
+      <c r="AM6" s="64" t="n"/>
+      <c r="AN6" s="64" t="n"/>
+      <c r="AO6" s="64" t="n"/>
+      <c r="AP6" s="64" t="n"/>
+      <c r="AQ6" s="64" t="n"/>
+      <c r="AR6" s="64" t="n"/>
+      <c r="AS6" s="64" t="n"/>
+      <c r="AT6" s="64" t="n"/>
+      <c r="AU6" s="64" t="n"/>
+      <c r="AV6" s="64" t="n"/>
+      <c r="AW6" s="64" t="n"/>
+      <c r="AX6" s="64" t="n"/>
+      <c r="AY6" s="64" t="n"/>
+      <c r="AZ6" s="64" t="n"/>
+      <c r="BA6" s="64" t="n"/>
+      <c r="BB6" s="64" t="n"/>
+      <c r="BC6" s="64" t="n"/>
+      <c r="BD6" s="64" t="n"/>
+      <c r="BE6" s="62" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="24" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="66" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B7" s="25" t="n"/>
-      <c r="C7" s="17" t="inlineStr">
+      <c r="B7" s="67" t="n"/>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
       </c>
-      <c r="D7" s="17" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t>DTOTAL: TOTAL</t>
         </is>
       </c>
-      <c r="E7" s="21" t="n"/>
-      <c r="F7" s="21" t="n"/>
-      <c r="G7" s="21" t="n"/>
-      <c r="H7" s="21" t="n"/>
-      <c r="I7" s="21" t="n"/>
-      <c r="J7" s="21" t="n"/>
-      <c r="K7" s="21" t="n"/>
-      <c r="L7" s="21" t="n"/>
-      <c r="M7" s="21" t="n"/>
-      <c r="N7" s="21" t="n"/>
-      <c r="O7" s="21" t="n"/>
-      <c r="P7" s="21" t="n"/>
-      <c r="Q7" s="21" t="n"/>
-      <c r="R7" s="21" t="n"/>
-      <c r="S7" s="21" t="n"/>
-      <c r="T7" s="21" t="n"/>
-      <c r="U7" s="21" t="n"/>
-      <c r="V7" s="21" t="n"/>
-      <c r="W7" s="21" t="n"/>
-      <c r="X7" s="21" t="n"/>
-      <c r="Y7" s="21" t="n"/>
-      <c r="Z7" s="21" t="n"/>
-      <c r="AA7" s="21" t="n"/>
-      <c r="AB7" s="21" t="n"/>
-      <c r="AC7" s="21" t="n"/>
-      <c r="AD7" s="21" t="n"/>
-      <c r="AE7" s="21" t="n"/>
-      <c r="AF7" s="21" t="n"/>
-      <c r="AG7" s="21" t="n"/>
-      <c r="AH7" s="21" t="n"/>
-      <c r="AI7" s="21" t="n"/>
-      <c r="AJ7" s="21" t="n"/>
-      <c r="AK7" s="21" t="n"/>
-      <c r="AL7" s="21" t="n"/>
-      <c r="AM7" s="21" t="n"/>
-      <c r="AN7" s="21" t="n"/>
-      <c r="AO7" s="21" t="n"/>
-      <c r="AP7" s="21" t="n"/>
-      <c r="AQ7" s="21" t="n"/>
-      <c r="AR7" s="21" t="n"/>
-      <c r="AS7" s="21" t="n"/>
-      <c r="AT7" s="21" t="n"/>
-      <c r="AU7" s="21" t="n"/>
-      <c r="AV7" s="21" t="n"/>
-      <c r="AW7" s="21" t="n"/>
-      <c r="AX7" s="21" t="n"/>
-      <c r="AY7" s="21" t="n"/>
-      <c r="AZ7" s="21" t="n"/>
-      <c r="BA7" s="21" t="n"/>
-      <c r="BB7" s="21" t="n"/>
-      <c r="BC7" s="21" t="n"/>
-      <c r="BD7" s="21" t="n"/>
-      <c r="BE7" s="18" t="n"/>
+      <c r="E7" s="64" t="n"/>
+      <c r="F7" s="64" t="n"/>
+      <c r="G7" s="64" t="n"/>
+      <c r="H7" s="64" t="n"/>
+      <c r="I7" s="64" t="n"/>
+      <c r="J7" s="64" t="n"/>
+      <c r="K7" s="64" t="n"/>
+      <c r="L7" s="64" t="n"/>
+      <c r="M7" s="64" t="n"/>
+      <c r="N7" s="64" t="n"/>
+      <c r="O7" s="64" t="n"/>
+      <c r="P7" s="64" t="n"/>
+      <c r="Q7" s="64" t="n"/>
+      <c r="R7" s="64" t="n"/>
+      <c r="S7" s="64" t="n"/>
+      <c r="T7" s="64" t="n"/>
+      <c r="U7" s="64" t="n"/>
+      <c r="V7" s="64" t="n"/>
+      <c r="W7" s="64" t="n"/>
+      <c r="X7" s="64" t="n"/>
+      <c r="Y7" s="64" t="n"/>
+      <c r="Z7" s="64" t="n"/>
+      <c r="AA7" s="64" t="n"/>
+      <c r="AB7" s="64" t="n"/>
+      <c r="AC7" s="64" t="n"/>
+      <c r="AD7" s="64" t="n"/>
+      <c r="AE7" s="64" t="n"/>
+      <c r="AF7" s="64" t="n"/>
+      <c r="AG7" s="64" t="n"/>
+      <c r="AH7" s="64" t="n"/>
+      <c r="AI7" s="64" t="n"/>
+      <c r="AJ7" s="64" t="n"/>
+      <c r="AK7" s="64" t="n"/>
+      <c r="AL7" s="64" t="n"/>
+      <c r="AM7" s="64" t="n"/>
+      <c r="AN7" s="64" t="n"/>
+      <c r="AO7" s="64" t="n"/>
+      <c r="AP7" s="64" t="n"/>
+      <c r="AQ7" s="64" t="n"/>
+      <c r="AR7" s="64" t="n"/>
+      <c r="AS7" s="64" t="n"/>
+      <c r="AT7" s="64" t="n"/>
+      <c r="AU7" s="64" t="n"/>
+      <c r="AV7" s="64" t="n"/>
+      <c r="AW7" s="64" t="n"/>
+      <c r="AX7" s="64" t="n"/>
+      <c r="AY7" s="64" t="n"/>
+      <c r="AZ7" s="64" t="n"/>
+      <c r="BA7" s="64" t="n"/>
+      <c r="BB7" s="64" t="n"/>
+      <c r="BC7" s="64" t="n"/>
+      <c r="BD7" s="64" t="n"/>
+      <c r="BE7" s="62" t="n"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="26" t="n"/>
-      <c r="B8" s="27" t="n"/>
-      <c r="C8" s="20" t="n"/>
-      <c r="D8" s="17" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="68" t="n"/>
+      <c r="B8" s="69" t="n"/>
+      <c r="C8" s="70" t="n"/>
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D01T03: Agriculture, forestry and fishing</t>
         </is>
       </c>
-      <c r="E8" s="17" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
-      <c r="F8" s="17" t="inlineStr">
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T09: Mining and quarrying</t>
         </is>
       </c>
-      <c r="G8" s="21" t="n"/>
-      <c r="H8" s="18" t="n"/>
-      <c r="I8" s="17" t="inlineStr">
+      <c r="G8" s="64" t="n"/>
+      <c r="H8" s="62" t="n"/>
+      <c r="I8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
       </c>
-      <c r="J8" s="17" t="inlineStr">
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D10T33: Manufacturing</t>
         </is>
       </c>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="21" t="n"/>
-      <c r="M8" s="21" t="n"/>
-      <c r="N8" s="21" t="n"/>
-      <c r="O8" s="21" t="n"/>
-      <c r="P8" s="21" t="n"/>
-      <c r="Q8" s="21" t="n"/>
-      <c r="R8" s="21" t="n"/>
-      <c r="S8" s="21" t="n"/>
-      <c r="T8" s="21" t="n"/>
-      <c r="U8" s="21" t="n"/>
-      <c r="V8" s="21" t="n"/>
-      <c r="W8" s="21" t="n"/>
-      <c r="X8" s="21" t="n"/>
-      <c r="Y8" s="21" t="n"/>
-      <c r="Z8" s="21" t="n"/>
-      <c r="AA8" s="21" t="n"/>
-      <c r="AB8" s="21" t="n"/>
-      <c r="AC8" s="21" t="n"/>
-      <c r="AD8" s="18" t="n"/>
-      <c r="AE8" s="17" t="inlineStr">
+      <c r="K8" s="64" t="n"/>
+      <c r="L8" s="64" t="n"/>
+      <c r="M8" s="64" t="n"/>
+      <c r="N8" s="64" t="n"/>
+      <c r="O8" s="64" t="n"/>
+      <c r="P8" s="64" t="n"/>
+      <c r="Q8" s="64" t="n"/>
+      <c r="R8" s="64" t="n"/>
+      <c r="S8" s="64" t="n"/>
+      <c r="T8" s="64" t="n"/>
+      <c r="U8" s="64" t="n"/>
+      <c r="V8" s="64" t="n"/>
+      <c r="W8" s="64" t="n"/>
+      <c r="X8" s="64" t="n"/>
+      <c r="Y8" s="64" t="n"/>
+      <c r="Z8" s="64" t="n"/>
+      <c r="AA8" s="64" t="n"/>
+      <c r="AB8" s="64" t="n"/>
+      <c r="AC8" s="64" t="n"/>
+      <c r="AD8" s="62" t="n"/>
+      <c r="AE8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D35T39: Electricity, gas, water supply, sewerage, waste and remediation services</t>
         </is>
       </c>
-      <c r="AF8" s="17" t="inlineStr">
+      <c r="AF8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T43: Construction</t>
         </is>
       </c>
-      <c r="AG8" s="17" t="inlineStr">
+      <c r="AG8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
       </c>
-      <c r="AH8" s="17" t="inlineStr">
+      <c r="AH8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T82: Total business sector services</t>
         </is>
       </c>
-      <c r="AI8" s="21" t="n"/>
-      <c r="AJ8" s="21" t="n"/>
-      <c r="AK8" s="21" t="n"/>
-      <c r="AL8" s="21" t="n"/>
-      <c r="AM8" s="21" t="n"/>
-      <c r="AN8" s="21" t="n"/>
-      <c r="AO8" s="21" t="n"/>
-      <c r="AP8" s="21" t="n"/>
-      <c r="AQ8" s="21" t="n"/>
-      <c r="AR8" s="18" t="n"/>
-      <c r="AS8" s="17" t="inlineStr">
+      <c r="AI8" s="64" t="n"/>
+      <c r="AJ8" s="64" t="n"/>
+      <c r="AK8" s="64" t="n"/>
+      <c r="AL8" s="64" t="n"/>
+      <c r="AM8" s="64" t="n"/>
+      <c r="AN8" s="64" t="n"/>
+      <c r="AO8" s="64" t="n"/>
+      <c r="AP8" s="64" t="n"/>
+      <c r="AQ8" s="64" t="n"/>
+      <c r="AR8" s="62" t="n"/>
+      <c r="AS8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
       </c>
-      <c r="AT8" s="17" t="inlineStr">
+      <c r="AT8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D84T98: Public admin, education and health; social and personal services</t>
         </is>
       </c>
-      <c r="AU8" s="21" t="n"/>
-      <c r="AV8" s="21" t="n"/>
-      <c r="AW8" s="21" t="n"/>
-      <c r="AX8" s="21" t="n"/>
-      <c r="AY8" s="21" t="n"/>
-      <c r="AZ8" s="18" t="n"/>
-      <c r="BA8" s="17" t="inlineStr">
+      <c r="AU8" s="64" t="n"/>
+      <c r="AV8" s="64" t="n"/>
+      <c r="AW8" s="64" t="n"/>
+      <c r="AX8" s="64" t="n"/>
+      <c r="AY8" s="64" t="n"/>
+      <c r="AZ8" s="62" t="n"/>
+      <c r="BA8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D05T39: Industry (mining, manufactures and utilities)</t>
         </is>
       </c>
-      <c r="BB8" s="17" t="inlineStr">
+      <c r="BB8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D45T98: Total services</t>
         </is>
       </c>
-      <c r="BC8" s="17" t="inlineStr">
+      <c r="BC8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D58T82: Information, finance, real estate and other business services</t>
         </is>
       </c>
-      <c r="BD8" s="17" t="inlineStr">
+      <c r="BD8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  D41T98: Total services (incl. construction)</t>
         </is>
       </c>
-      <c r="BE8" s="17" t="inlineStr">
+      <c r="BE8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">  DINFO: Information industries</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="26" t="n"/>
-      <c r="B9" s="27" t="n"/>
-      <c r="C9" s="20" t="n"/>
-      <c r="D9" s="20" t="n"/>
-      <c r="E9" s="20" t="n"/>
-      <c r="F9" s="17" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="68" t="n"/>
+      <c r="B9" s="69" t="n"/>
+      <c r="C9" s="70" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="70" t="n"/>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D05T06: Mining and extraction of energy producing products</t>
         </is>
       </c>
-      <c r="G9" s="17" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D07T08: Mining and quarrying of non-energy producing products</t>
         </is>
       </c>
-      <c r="H9" s="17" t="inlineStr">
+      <c r="H9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D09: Mining support service activities</t>
         </is>
       </c>
-      <c r="I9" s="20" t="n"/>
-      <c r="J9" s="17" t="inlineStr">
+      <c r="I9" s="70" t="n"/>
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D10T12: Food products, beverages and tobacco</t>
         </is>
       </c>
-      <c r="K9" s="17" t="inlineStr">
+      <c r="K9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D13T15: Textiles, wearing apparel, leather and related products</t>
         </is>
       </c>
-      <c r="L9" s="17" t="inlineStr">
+      <c r="L9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="M9" s="17" t="inlineStr">
+      <c r="M9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D16T18: Wood and paper products; printing</t>
         </is>
       </c>
-      <c r="N9" s="18" t="n"/>
-      <c r="O9" s="17" t="inlineStr">
+      <c r="N9" s="62" t="n"/>
+      <c r="O9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
-      <c r="P9" s="17" t="inlineStr">
+      <c r="P9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D19T23: Chemicals and non-metallic mineral products</t>
         </is>
       </c>
-      <c r="Q9" s="21" t="n"/>
-      <c r="R9" s="21" t="n"/>
-      <c r="S9" s="18" t="n"/>
-      <c r="T9" s="17" t="inlineStr">
+      <c r="Q9" s="64" t="n"/>
+      <c r="R9" s="64" t="n"/>
+      <c r="S9" s="62" t="n"/>
+      <c r="T9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="U9" s="17" t="inlineStr">
+      <c r="U9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D24T25: Basic metals and fabricated metal products</t>
         </is>
       </c>
-      <c r="V9" s="18" t="n"/>
-      <c r="W9" s="17" t="inlineStr">
+      <c r="V9" s="62" t="n"/>
+      <c r="W9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="X9" s="17" t="inlineStr">
+      <c r="X9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D26T27: Computers, electronic and electrical equipment</t>
         </is>
       </c>
-      <c r="Y9" s="18" t="n"/>
-      <c r="Z9" s="17" t="inlineStr">
+      <c r="Y9" s="62" t="n"/>
+      <c r="Z9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D28: Machinery and equipment, nec</t>
         </is>
       </c>
-      <c r="AA9" s="17" t="inlineStr">
+      <c r="AA9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AB9" s="17" t="inlineStr">
+      <c r="AB9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D29T30: Transport equipment</t>
         </is>
       </c>
-      <c r="AC9" s="18" t="n"/>
-      <c r="AD9" s="17" t="inlineStr">
+      <c r="AC9" s="62" t="n"/>
+      <c r="AD9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D31T33: Other manufacturing; repair and installation of machinery and equipment</t>
         </is>
       </c>
-      <c r="AE9" s="20" t="n"/>
-      <c r="AF9" s="20" t="n"/>
-      <c r="AG9" s="20" t="n"/>
-      <c r="AH9" s="17" t="inlineStr">
+      <c r="AE9" s="70" t="n"/>
+      <c r="AF9" s="70" t="n"/>
+      <c r="AG9" s="70" t="n"/>
+      <c r="AH9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
-      <c r="AI9" s="17" t="inlineStr">
+      <c r="AI9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D45T56: Distributive trade, transport, accommodation and food services</t>
         </is>
       </c>
-      <c r="AJ9" s="21" t="n"/>
-      <c r="AK9" s="18" t="n"/>
-      <c r="AL9" s="17" t="inlineStr">
+      <c r="AJ9" s="64" t="n"/>
+      <c r="AK9" s="62" t="n"/>
+      <c r="AL9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
-      <c r="AM9" s="17" t="inlineStr">
+      <c r="AM9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D58T63: Information and communication</t>
         </is>
       </c>
-      <c r="AN9" s="21" t="n"/>
-      <c r="AO9" s="18" t="n"/>
-      <c r="AP9" s="17" t="inlineStr">
+      <c r="AN9" s="64" t="n"/>
+      <c r="AO9" s="62" t="n"/>
+      <c r="AP9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D64T66: Financial and insurance activities</t>
         </is>
       </c>
-      <c r="AQ9" s="17" t="inlineStr">
+      <c r="AQ9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D68: Real estate activities</t>
         </is>
       </c>
-      <c r="AR9" s="17" t="inlineStr">
+      <c r="AR9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D69T82: Other business sector services</t>
         </is>
       </c>
-      <c r="AS9" s="20" t="n"/>
-      <c r="AT9" s="17" t="inlineStr">
+      <c r="AS9" s="70" t="n"/>
+      <c r="AT9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
-      <c r="AU9" s="17" t="inlineStr">
+      <c r="AU9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D84T88: Public admin, defence; education and health</t>
         </is>
       </c>
-      <c r="AV9" s="21" t="n"/>
-      <c r="AW9" s="18" t="n"/>
-      <c r="AX9" s="17" t="inlineStr">
+      <c r="AV9" s="64" t="n"/>
+      <c r="AW9" s="62" t="n"/>
+      <c r="AX9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AY9" s="17" t="inlineStr">
+      <c r="AY9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">    D90T98: Other social and personal services</t>
         </is>
       </c>
-      <c r="AZ9" s="18" t="n"/>
-      <c r="BA9" s="20" t="n"/>
-      <c r="BB9" s="20" t="n"/>
-      <c r="BC9" s="20" t="n"/>
-      <c r="BD9" s="20" t="n"/>
-      <c r="BE9" s="20" t="n"/>
+      <c r="AZ9" s="62" t="n"/>
+      <c r="BA9" s="70" t="n"/>
+      <c r="BB9" s="70" t="n"/>
+      <c r="BC9" s="70" t="n"/>
+      <c r="BD9" s="70" t="n"/>
+      <c r="BE9" s="70" t="n"/>
     </row>
     <row r="10" ht="94.5" customHeight="1">
-      <c r="A10" s="28" t="n"/>
-      <c r="B10" s="29" t="n"/>
-      <c r="C10" s="19" t="n"/>
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="19" t="n"/>
-      <c r="F10" s="19" t="n"/>
-      <c r="G10" s="19" t="n"/>
-      <c r="H10" s="19" t="n"/>
-      <c r="I10" s="19" t="n"/>
-      <c r="J10" s="19" t="n"/>
-      <c r="K10" s="19" t="n"/>
-      <c r="L10" s="19" t="n"/>
-      <c r="M10" s="17" t="inlineStr">
+      <c r="A10" s="71" t="n"/>
+      <c r="B10" s="72" t="n"/>
+      <c r="C10" s="73" t="n"/>
+      <c r="D10" s="73" t="n"/>
+      <c r="E10" s="73" t="n"/>
+      <c r="F10" s="73" t="n"/>
+      <c r="G10" s="73" t="n"/>
+      <c r="H10" s="73" t="n"/>
+      <c r="I10" s="73" t="n"/>
+      <c r="J10" s="73" t="n"/>
+      <c r="K10" s="73" t="n"/>
+      <c r="L10" s="73" t="n"/>
+      <c r="M10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D16: Wood and products of wood and cork</t>
         </is>
       </c>
-      <c r="N10" s="17" t="inlineStr">
+      <c r="N10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D17T18: Paper products and printing</t>
         </is>
       </c>
-      <c r="O10" s="19" t="n"/>
-      <c r="P10" s="17" t="inlineStr">
+      <c r="O10" s="73" t="n"/>
+      <c r="P10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D19: Coke and refined petroleum products</t>
         </is>
       </c>
-      <c r="Q10" s="17" t="inlineStr">
+      <c r="Q10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D20T21: Chemicals and pharmaceutical products</t>
         </is>
       </c>
-      <c r="R10" s="17" t="inlineStr">
+      <c r="R10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D22: Rubber and plastic products</t>
         </is>
       </c>
-      <c r="S10" s="17" t="inlineStr">
+      <c r="S10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D23: Other non-metallic mineral products</t>
         </is>
       </c>
-      <c r="T10" s="19" t="n"/>
-      <c r="U10" s="17" t="inlineStr">
+      <c r="T10" s="73" t="n"/>
+      <c r="U10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D24: Basic metals</t>
         </is>
       </c>
-      <c r="V10" s="17" t="inlineStr">
+      <c r="V10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D25: Fabricated metal products</t>
         </is>
       </c>
-      <c r="W10" s="19" t="n"/>
-      <c r="X10" s="17" t="inlineStr">
+      <c r="W10" s="73" t="n"/>
+      <c r="X10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D26: Computer, electronic and optical products</t>
         </is>
       </c>
-      <c r="Y10" s="17" t="inlineStr">
+      <c r="Y10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D27: Electrical equipment</t>
         </is>
       </c>
-      <c r="Z10" s="19" t="n"/>
-      <c r="AA10" s="19" t="n"/>
-      <c r="AB10" s="17" t="inlineStr">
+      <c r="Z10" s="73" t="n"/>
+      <c r="AA10" s="73" t="n"/>
+      <c r="AB10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D29: Motor vehicles, trailers and semi-trailers</t>
         </is>
       </c>
-      <c r="AC10" s="17" t="inlineStr">
+      <c r="AC10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D30: Other transport equipment</t>
         </is>
       </c>
-      <c r="AD10" s="19" t="n"/>
-      <c r="AE10" s="19" t="n"/>
-      <c r="AF10" s="19" t="n"/>
-      <c r="AG10" s="19" t="n"/>
-      <c r="AH10" s="19" t="n"/>
-      <c r="AI10" s="17" t="inlineStr">
+      <c r="AD10" s="73" t="n"/>
+      <c r="AE10" s="73" t="n"/>
+      <c r="AF10" s="73" t="n"/>
+      <c r="AG10" s="73" t="n"/>
+      <c r="AH10" s="73" t="n"/>
+      <c r="AI10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D45T47: Wholesale and retail trade; repair of motor vehicles</t>
         </is>
       </c>
-      <c r="AJ10" s="17" t="inlineStr">
+      <c r="AJ10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D49T53: Transportation and storage</t>
         </is>
       </c>
-      <c r="AK10" s="17" t="inlineStr">
+      <c r="AK10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D55T56: Accommodation and food services</t>
         </is>
       </c>
-      <c r="AL10" s="19" t="n"/>
-      <c r="AM10" s="17" t="inlineStr">
+      <c r="AL10" s="73" t="n"/>
+      <c r="AM10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D58T60: Publishing, audiovisual and broadcasting activities</t>
         </is>
       </c>
-      <c r="AN10" s="17" t="inlineStr">
+      <c r="AN10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D61: Telecommunications</t>
         </is>
       </c>
-      <c r="AO10" s="17" t="inlineStr">
+      <c r="AO10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D62T63: IT and other information services</t>
         </is>
       </c>
-      <c r="AP10" s="19" t="n"/>
-      <c r="AQ10" s="19" t="n"/>
-      <c r="AR10" s="19" t="n"/>
-      <c r="AS10" s="19" t="n"/>
-      <c r="AT10" s="19" t="n"/>
-      <c r="AU10" s="17" t="inlineStr">
+      <c r="AP10" s="73" t="n"/>
+      <c r="AQ10" s="73" t="n"/>
+      <c r="AR10" s="73" t="n"/>
+      <c r="AS10" s="73" t="n"/>
+      <c r="AT10" s="73" t="n"/>
+      <c r="AU10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D84: Public admin. and defence; compulsory social security</t>
         </is>
       </c>
-      <c r="AV10" s="17" t="inlineStr">
+      <c r="AV10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D85: Education</t>
         </is>
       </c>
-      <c r="AW10" s="17" t="inlineStr">
+      <c r="AW10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D86T88: Human health and social work</t>
         </is>
       </c>
-      <c r="AX10" s="19" t="n"/>
-      <c r="AY10" s="17" t="inlineStr">
+      <c r="AX10" s="73" t="n"/>
+      <c r="AY10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D90T96: Arts, entertainment, recreation and other service activities</t>
         </is>
       </c>
-      <c r="AZ10" s="17" t="inlineStr">
+      <c r="AZ10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">      D97T98: Private households with employed persons</t>
         </is>
       </c>
-      <c r="BA10" s="19" t="n"/>
-      <c r="BB10" s="19" t="n"/>
-      <c r="BC10" s="19" t="n"/>
-      <c r="BD10" s="19" t="n"/>
-      <c r="BE10" s="19" t="n"/>
+      <c r="BA10" s="73" t="n"/>
+      <c r="BB10" s="73" t="n"/>
+      <c r="BC10" s="73" t="n"/>
+      <c r="BD10" s="73" t="n"/>
+      <c r="BE10" s="73" t="n"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
@@ -1561,62 +2053,62 @@
           <t>Country</t>
         </is>
       </c>
-      <c r="B11" s="10" t="n"/>
-      <c r="C11" s="10" t="n"/>
-      <c r="D11" s="10" t="n"/>
-      <c r="E11" s="10" t="n"/>
-      <c r="F11" s="10" t="n"/>
-      <c r="G11" s="10" t="n"/>
-      <c r="H11" s="10" t="n"/>
-      <c r="I11" s="10" t="n"/>
-      <c r="J11" s="10" t="n"/>
-      <c r="K11" s="10" t="n"/>
-      <c r="L11" s="10" t="n"/>
-      <c r="M11" s="10" t="n"/>
-      <c r="N11" s="10" t="n"/>
-      <c r="O11" s="10" t="n"/>
-      <c r="P11" s="10" t="n"/>
-      <c r="Q11" s="10" t="n"/>
-      <c r="R11" s="10" t="n"/>
-      <c r="S11" s="10" t="n"/>
-      <c r="T11" s="10" t="n"/>
-      <c r="U11" s="10" t="n"/>
-      <c r="V11" s="10" t="n"/>
-      <c r="W11" s="10" t="n"/>
-      <c r="X11" s="10" t="n"/>
-      <c r="Y11" s="10" t="n"/>
-      <c r="Z11" s="10" t="n"/>
-      <c r="AA11" s="10" t="n"/>
-      <c r="AB11" s="10" t="n"/>
-      <c r="AC11" s="10" t="n"/>
-      <c r="AD11" s="10" t="n"/>
-      <c r="AE11" s="10" t="n"/>
-      <c r="AF11" s="10" t="n"/>
-      <c r="AG11" s="10" t="n"/>
-      <c r="AH11" s="10" t="n"/>
-      <c r="AI11" s="10" t="n"/>
-      <c r="AJ11" s="10" t="n"/>
-      <c r="AK11" s="10" t="n"/>
-      <c r="AL11" s="10" t="n"/>
-      <c r="AM11" s="10" t="n"/>
-      <c r="AN11" s="10" t="n"/>
-      <c r="AO11" s="10" t="n"/>
-      <c r="AP11" s="10" t="n"/>
-      <c r="AQ11" s="10" t="n"/>
-      <c r="AR11" s="10" t="n"/>
-      <c r="AS11" s="10" t="n"/>
-      <c r="AT11" s="10" t="n"/>
-      <c r="AU11" s="10" t="n"/>
-      <c r="AV11" s="10" t="n"/>
-      <c r="AW11" s="10" t="n"/>
-      <c r="AX11" s="10" t="n"/>
-      <c r="AY11" s="10" t="n"/>
-      <c r="AZ11" s="10" t="n"/>
-      <c r="BA11" s="10" t="n"/>
-      <c r="BB11" s="10" t="n"/>
-      <c r="BC11" s="10" t="n"/>
-      <c r="BD11" s="10" t="n"/>
-      <c r="BE11" s="10" t="n"/>
+      <c r="B11" s="10" t="inlineStr"/>
+      <c r="C11" s="10" t="inlineStr"/>
+      <c r="D11" s="10" t="inlineStr"/>
+      <c r="E11" s="10" t="inlineStr"/>
+      <c r="F11" s="10" t="inlineStr"/>
+      <c r="G11" s="10" t="inlineStr"/>
+      <c r="H11" s="10" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr"/>
+      <c r="J11" s="10" t="inlineStr"/>
+      <c r="K11" s="10" t="inlineStr"/>
+      <c r="L11" s="10" t="inlineStr"/>
+      <c r="M11" s="10" t="inlineStr"/>
+      <c r="N11" s="10" t="inlineStr"/>
+      <c r="O11" s="10" t="inlineStr"/>
+      <c r="P11" s="10" t="inlineStr"/>
+      <c r="Q11" s="10" t="inlineStr"/>
+      <c r="R11" s="10" t="inlineStr"/>
+      <c r="S11" s="10" t="inlineStr"/>
+      <c r="T11" s="10" t="inlineStr"/>
+      <c r="U11" s="10" t="inlineStr"/>
+      <c r="V11" s="10" t="inlineStr"/>
+      <c r="W11" s="10" t="inlineStr"/>
+      <c r="X11" s="10" t="inlineStr"/>
+      <c r="Y11" s="10" t="inlineStr"/>
+      <c r="Z11" s="10" t="inlineStr"/>
+      <c r="AA11" s="10" t="inlineStr"/>
+      <c r="AB11" s="10" t="inlineStr"/>
+      <c r="AC11" s="10" t="inlineStr"/>
+      <c r="AD11" s="10" t="inlineStr"/>
+      <c r="AE11" s="10" t="inlineStr"/>
+      <c r="AF11" s="10" t="inlineStr"/>
+      <c r="AG11" s="10" t="inlineStr"/>
+      <c r="AH11" s="10" t="inlineStr"/>
+      <c r="AI11" s="10" t="inlineStr"/>
+      <c r="AJ11" s="10" t="inlineStr"/>
+      <c r="AK11" s="10" t="inlineStr"/>
+      <c r="AL11" s="10" t="inlineStr"/>
+      <c r="AM11" s="10" t="inlineStr"/>
+      <c r="AN11" s="10" t="inlineStr"/>
+      <c r="AO11" s="10" t="inlineStr"/>
+      <c r="AP11" s="10" t="inlineStr"/>
+      <c r="AQ11" s="10" t="inlineStr"/>
+      <c r="AR11" s="10" t="inlineStr"/>
+      <c r="AS11" s="10" t="inlineStr"/>
+      <c r="AT11" s="10" t="inlineStr"/>
+      <c r="AU11" s="10" t="inlineStr"/>
+      <c r="AV11" s="10" t="inlineStr"/>
+      <c r="AW11" s="10" t="inlineStr"/>
+      <c r="AX11" s="10" t="inlineStr"/>
+      <c r="AY11" s="10" t="inlineStr"/>
+      <c r="AZ11" s="10" t="inlineStr"/>
+      <c r="BA11" s="10" t="inlineStr"/>
+      <c r="BB11" s="10" t="inlineStr"/>
+      <c r="BC11" s="10" t="inlineStr"/>
+      <c r="BD11" s="10" t="inlineStr"/>
+      <c r="BE11" s="10" t="inlineStr"/>
     </row>
     <row r="12" ht="21" customHeight="1">
       <c r="A12" s="11" t="inlineStr">
@@ -1624,7 +2116,7 @@
           <t>OECD: OECD member countries</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n"/>
+      <c r="B12" s="10" t="inlineStr"/>
       <c r="C12" s="12" t="n">
         <v>580988.5</v>
       </c>
@@ -1797,7 +2289,7 @@
           <t>AUS: Australia</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n"/>
+      <c r="B13" s="10" t="inlineStr"/>
       <c r="C13" s="13" t="n">
         <v>11882.6</v>
       </c>
@@ -1970,7 +2462,7 @@
           <t>AUT: Austria</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n"/>
+      <c r="B14" s="10" t="inlineStr"/>
       <c r="C14" s="12" t="n">
         <v>4285.4</v>
       </c>
@@ -2143,7 +2635,7 @@
           <t>BEL: Belgium</t>
         </is>
       </c>
-      <c r="B15" s="10" t="n"/>
+      <c r="B15" s="10" t="inlineStr"/>
       <c r="C15" s="13" t="n">
         <v>4600.5</v>
       </c>
@@ -2316,7 +2808,7 @@
           <t>CAN: Canada</t>
         </is>
       </c>
-      <c r="B16" s="10" t="n"/>
+      <c r="B16" s="10" t="inlineStr"/>
       <c r="C16" s="12" t="n">
         <v>18261.9</v>
       </c>
@@ -2489,7 +2981,7 @@
           <t>CHL: Chile</t>
         </is>
       </c>
-      <c r="B17" s="10" t="n"/>
+      <c r="B17" s="10" t="inlineStr"/>
       <c r="C17" s="13" t="n">
         <v>8009.3</v>
       </c>
@@ -2662,7 +3154,7 @@
           <t>CZE: Czech Republic</t>
         </is>
       </c>
-      <c r="B18" s="10" t="n"/>
+      <c r="B18" s="10" t="inlineStr"/>
       <c r="C18" s="12" t="n">
         <v>5181.9</v>
       </c>
@@ -2835,7 +3327,7 @@
           <t>DNK: Denmark</t>
         </is>
       </c>
-      <c r="B19" s="10" t="n"/>
+      <c r="B19" s="10" t="inlineStr"/>
       <c r="C19" s="13" t="n">
         <v>2828.7</v>
       </c>
@@ -3008,7 +3500,7 @@
           <t>EST: Estonia</t>
         </is>
       </c>
-      <c r="B20" s="10" t="n"/>
+      <c r="B20" s="10" t="inlineStr"/>
       <c r="C20" s="12" t="n">
         <v>622.9</v>
       </c>
@@ -3181,7 +3673,7 @@
           <t>FIN: Finland</t>
         </is>
       </c>
-      <c r="B21" s="10" t="n"/>
+      <c r="B21" s="10" t="inlineStr"/>
       <c r="C21" s="13" t="n">
         <v>2504.1</v>
       </c>
@@ -3354,7 +3846,7 @@
           <t>FRA: France</t>
         </is>
       </c>
-      <c r="B22" s="10" t="n"/>
+      <c r="B22" s="10" t="inlineStr"/>
       <c r="C22" s="12" t="n">
         <v>27390.8</v>
       </c>
@@ -3527,7 +4019,7 @@
           <t>DEU: Germany</t>
         </is>
       </c>
-      <c r="B23" s="10" t="n"/>
+      <c r="B23" s="10" t="inlineStr"/>
       <c r="C23" s="13" t="n">
         <v>43069</v>
       </c>
@@ -3700,7 +4192,7 @@
           <t>GRC: Greece</t>
         </is>
       </c>
-      <c r="B24" s="10" t="n"/>
+      <c r="B24" s="10" t="inlineStr"/>
       <c r="C24" s="12" t="n">
         <v>4064</v>
       </c>
@@ -3873,7 +4365,7 @@
           <t>HUN: Hungary</t>
         </is>
       </c>
-      <c r="B25" s="10" t="n"/>
+      <c r="B25" s="10" t="inlineStr"/>
       <c r="C25" s="13" t="n">
         <v>4308</v>
       </c>
@@ -4046,7 +4538,7 @@
           <t>ISL: Iceland</t>
         </is>
       </c>
-      <c r="B26" s="10" t="n"/>
+      <c r="B26" s="10" t="inlineStr"/>
       <c r="C26" s="12" t="n">
         <v>183.7</v>
       </c>
@@ -4219,7 +4711,7 @@
           <t>IRL: Ireland</t>
         </is>
       </c>
-      <c r="B27" s="10" t="n"/>
+      <c r="B27" s="10" t="inlineStr"/>
       <c r="C27" s="13" t="n">
         <v>1989.4</v>
       </c>
@@ -4392,7 +4884,7 @@
           <t>ISR: Israel</t>
         </is>
       </c>
-      <c r="B28" s="10" t="n"/>
+      <c r="B28" s="10" t="inlineStr"/>
       <c r="C28" s="12" t="n">
         <v>3934.1</v>
       </c>
@@ -4565,7 +5057,7 @@
           <t>ITA: Italy</t>
         </is>
       </c>
-      <c r="B29" s="10" t="n"/>
+      <c r="B29" s="10" t="inlineStr"/>
       <c r="C29" s="13" t="n">
         <v>24497.9</v>
       </c>
@@ -4738,7 +5230,7 @@
           <t>JPN: Japan</t>
         </is>
       </c>
-      <c r="B30" s="10" t="n"/>
+      <c r="B30" s="10" t="inlineStr"/>
       <c r="C30" s="12" t="n">
         <v>66220</v>
       </c>
@@ -4911,7 +5403,7 @@
           <t>KOR: Korea</t>
         </is>
       </c>
-      <c r="B31" s="10" t="n"/>
+      <c r="B31" s="10" t="inlineStr"/>
       <c r="C31" s="13" t="n">
         <v>25936.3</v>
       </c>
@@ -5084,7 +5576,7 @@
           <t>LVA: Latvia</t>
         </is>
       </c>
-      <c r="B32" s="10" t="n"/>
+      <c r="B32" s="10" t="inlineStr"/>
       <c r="C32" s="12" t="n">
         <v>889</v>
       </c>
@@ -5257,7 +5749,7 @@
           <t>LTU: Lithuania</t>
         </is>
       </c>
-      <c r="B33" s="10" t="n"/>
+      <c r="B33" s="10" t="inlineStr"/>
       <c r="C33" s="13" t="n">
         <v>1334.7</v>
       </c>
@@ -5430,7 +5922,7 @@
           <t>LUX: Luxembourg</t>
         </is>
       </c>
-      <c r="B34" s="10" t="n"/>
+      <c r="B34" s="10" t="inlineStr"/>
       <c r="C34" s="12" t="n">
         <v>406.1</v>
       </c>
@@ -5603,7 +6095,7 @@
           <t>MEX: Mexico</t>
         </is>
       </c>
-      <c r="B35" s="10" t="n"/>
+      <c r="B35" s="10" t="inlineStr"/>
       <c r="C35" s="13" t="n">
         <v>37554</v>
       </c>
@@ -5776,7 +6268,7 @@
           <t>NLD: Netherlands</t>
         </is>
       </c>
-      <c r="B36" s="10" t="n"/>
+      <c r="B36" s="10" t="inlineStr"/>
       <c r="C36" s="12" t="n">
         <v>8807</v>
       </c>
@@ -5949,7 +6441,7 @@
           <t>NZL: New Zealand</t>
         </is>
       </c>
-      <c r="B37" s="10" t="n"/>
+      <c r="B37" s="10" t="inlineStr"/>
       <c r="C37" s="13" t="n">
         <v>2352.2</v>
       </c>
@@ -6122,7 +6614,7 @@
           <t>NOR: Norway</t>
         </is>
       </c>
-      <c r="B38" s="10" t="n"/>
+      <c r="B38" s="10" t="inlineStr"/>
       <c r="C38" s="12" t="n">
         <v>2757.1</v>
       </c>
@@ -6295,7 +6787,7 @@
           <t>POL: Poland</t>
         </is>
       </c>
-      <c r="B39" s="10" t="n"/>
+      <c r="B39" s="10" t="inlineStr"/>
       <c r="C39" s="13" t="n">
         <v>15970</v>
       </c>
@@ -6468,7 +6960,7 @@
           <t>PRT: Portugal</t>
         </is>
       </c>
-      <c r="B40" s="10" t="n"/>
+      <c r="B40" s="10" t="inlineStr"/>
       <c r="C40" s="12" t="n">
         <v>4575.8</v>
       </c>
@@ -6641,7 +7133,7 @@
           <t>SVK: Slovak Republic</t>
         </is>
       </c>
-      <c r="B41" s="10" t="n"/>
+      <c r="B41" s="10" t="inlineStr"/>
       <c r="C41" s="13" t="n">
         <v>2267.1</v>
       </c>
@@ -6814,7 +7306,7 @@
           <t>SVN: Slovenia</t>
         </is>
       </c>
-      <c r="B42" s="10" t="n"/>
+      <c r="B42" s="10" t="inlineStr"/>
       <c r="C42" s="12" t="n">
         <v>941.6</v>
       </c>
@@ -6987,7 +7479,7 @@
           <t>ESP: Spain</t>
         </is>
       </c>
-      <c r="B43" s="10" t="n"/>
+      <c r="B43" s="10" t="inlineStr"/>
       <c r="C43" s="13" t="n">
         <v>18521.3</v>
       </c>
@@ -7160,7 +7652,7 @@
           <t>SWE: Sweden</t>
         </is>
       </c>
-      <c r="B44" s="10" t="n"/>
+      <c r="B44" s="10" t="inlineStr"/>
       <c r="C44" s="12" t="n">
         <v>4809</v>
       </c>
@@ -7333,7 +7825,7 @@
           <t>CHE: Switzerland</t>
         </is>
       </c>
-      <c r="B45" s="10" t="n"/>
+      <c r="B45" s="10" t="inlineStr"/>
       <c r="C45" s="13" t="n">
         <v>4894.9</v>
       </c>
@@ -7506,7 +7998,7 @@
           <t>TUR: Turkey</t>
         </is>
       </c>
-      <c r="B46" s="10" t="n"/>
+      <c r="B46" s="10" t="inlineStr"/>
       <c r="C46" s="12" t="n">
         <v>26330</v>
       </c>
@@ -7679,7 +8171,7 @@
           <t>GBR: United Kingdom</t>
         </is>
       </c>
-      <c r="B47" s="10" t="n"/>
+      <c r="B47" s="10" t="inlineStr"/>
       <c r="C47" s="13" t="n">
         <v>31281.1</v>
       </c>
@@ -7852,7 +8344,7 @@
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="B48" s="10" t="n"/>
+      <c r="B48" s="10" t="inlineStr"/>
       <c r="C48" s="12" t="n">
         <v>157527</v>
       </c>
@@ -8025,7 +8517,7 @@
           <t>NONOECD: Non-OECD economies and aggregates</t>
         </is>
       </c>
-      <c r="B49" s="10" t="n"/>
+      <c r="B49" s="10" t="inlineStr"/>
       <c r="C49" s="13" t="n">
         <v>1633597.9</v>
       </c>
@@ -8198,7 +8690,7 @@
           <t>ARG: Argentina</t>
         </is>
       </c>
-      <c r="B50" s="10" t="n"/>
+      <c r="B50" s="10" t="inlineStr"/>
       <c r="C50" s="12" t="n">
         <v>19542.7</v>
       </c>
@@ -8371,7 +8863,7 @@
           <t>BRA: Brazil</t>
         </is>
       </c>
-      <c r="B51" s="10" t="n"/>
+      <c r="B51" s="10" t="inlineStr"/>
       <c r="C51" s="13" t="n">
         <v>101945.1</v>
       </c>
@@ -8544,7 +9036,7 @@
           <t>BGR: Bulgaria</t>
         </is>
       </c>
-      <c r="B52" s="10" t="n"/>
+      <c r="B52" s="10" t="inlineStr"/>
       <c r="C52" s="12" t="n">
         <v>3446.2</v>
       </c>
@@ -8717,7 +9209,7 @@
           <t>CHN: China (People's Republic of)</t>
         </is>
       </c>
-      <c r="B53" s="10" t="n"/>
+      <c r="B53" s="10" t="inlineStr"/>
       <c r="C53" s="13" t="n">
         <v>774510</v>
       </c>
@@ -8890,7 +9382,7 @@
           <t>COL: Colombia</t>
         </is>
       </c>
-      <c r="B54" s="10" t="n"/>
+      <c r="B54" s="10" t="inlineStr"/>
       <c r="C54" s="12" t="n">
         <v>21104.4</v>
       </c>
@@ -9063,7 +9555,7 @@
           <t>CRI: Costa Rica</t>
         </is>
       </c>
-      <c r="B55" s="10" t="n"/>
+      <c r="B55" s="10" t="inlineStr"/>
       <c r="C55" s="13" t="n">
         <v>2005.3</v>
       </c>
@@ -9236,7 +9728,7 @@
           <t>HRV: Croatia</t>
         </is>
       </c>
-      <c r="B56" s="10" t="n"/>
+      <c r="B56" s="10" t="inlineStr"/>
       <c r="C56" s="12" t="n">
         <v>1594.6</v>
       </c>
@@ -9409,7 +9901,7 @@
           <t>CYP: Cyprus</t>
         </is>
       </c>
-      <c r="B57" s="10" t="n"/>
+      <c r="B57" s="10" t="inlineStr"/>
       <c r="C57" s="13" t="n">
         <v>368.4</v>
       </c>
@@ -9582,7 +10074,7 @@
           <t>IND: India</t>
         </is>
       </c>
-      <c r="B58" s="10" t="n"/>
+      <c r="B58" s="10" t="inlineStr"/>
       <c r="C58" s="12" t="n">
         <v>482700.5</v>
       </c>
@@ -9755,7 +10247,7 @@
           <t>IDN: Indonesia</t>
         </is>
       </c>
-      <c r="B59" s="10" t="n"/>
+      <c r="B59" s="10" t="inlineStr"/>
       <c r="C59" s="13" t="n">
         <v>117833</v>
       </c>
@@ -9928,7 +10420,7 @@
           <t>MLT: Malta</t>
         </is>
       </c>
-      <c r="B60" s="10" t="n"/>
+      <c r="B60" s="10" t="inlineStr"/>
       <c r="C60" s="12" t="n">
         <v>195.9</v>
       </c>
@@ -10101,7 +10593,7 @@
           <t>ROU: Romania</t>
         </is>
       </c>
-      <c r="B61" s="10" t="n"/>
+      <c r="B61" s="10" t="inlineStr"/>
       <c r="C61" s="13" t="n">
         <v>8525.700000000001</v>
       </c>
@@ -10274,7 +10766,7 @@
           <t>RUS: Russian Federation</t>
         </is>
       </c>
-      <c r="B62" s="10" t="n"/>
+      <c r="B62" s="10" t="inlineStr"/>
       <c r="C62" s="12" t="n">
         <v>72540.60000000001</v>
       </c>
@@ -10447,7 +10939,7 @@
           <t>SAU: Saudi Arabia</t>
         </is>
       </c>
-      <c r="B63" s="10" t="n"/>
+      <c r="B63" s="10" t="inlineStr"/>
       <c r="C63" s="13" t="n">
         <v>11357.3</v>
       </c>
@@ -10620,7 +11112,7 @@
           <t>ZAF: South Africa</t>
         </is>
       </c>
-      <c r="B64" s="10" t="n"/>
+      <c r="B64" s="10" t="inlineStr"/>
       <c r="C64" s="12" t="n">
         <v>15928.4</v>
       </c>
@@ -10793,7 +11285,7 @@
           <t>EASIA: Eastern Asia</t>
         </is>
       </c>
-      <c r="B65" s="10" t="n"/>
+      <c r="B65" s="10" t="inlineStr"/>
       <c r="C65" s="13" t="n">
         <v>866666.3</v>
       </c>
@@ -10966,7 +11458,7 @@
           <t>EU15: European Union (15 countries)</t>
         </is>
       </c>
-      <c r="B66" s="10" t="n"/>
+      <c r="B66" s="10" t="inlineStr"/>
       <c r="C66" s="12" t="n">
         <v>183630.2</v>
       </c>
@@ -11139,7 +11631,7 @@
           <t>EU28: European Union (28 countries)</t>
         </is>
       </c>
-      <c r="B67" s="10" t="n"/>
+      <c r="B67" s="10" t="inlineStr"/>
       <c r="C67" s="13" t="n">
         <v>229276.3</v>
       </c>
@@ -11312,7 +11804,7 @@
           <t>EU13: EU28 excluding EU15</t>
         </is>
       </c>
-      <c r="B68" s="10" t="n"/>
+      <c r="B68" s="10" t="inlineStr"/>
       <c r="C68" s="12" t="n">
         <v>45646.1</v>
       </c>
@@ -11485,7 +11977,7 @@
           <t>EA19: Euro area</t>
         </is>
       </c>
-      <c r="B69" s="10" t="n"/>
+      <c r="B69" s="10" t="inlineStr"/>
       <c r="C69" s="13" t="n">
         <v>151331</v>
       </c>
@@ -11658,7 +12150,7 @@
           <t>EA12: Euro area (12 countries)</t>
         </is>
       </c>
-      <c r="B70" s="10" t="n"/>
+      <c r="B70" s="10" t="inlineStr"/>
       <c r="C70" s="12" t="n">
         <v>144711.4</v>
       </c>
@@ -11831,7 +12323,7 @@
           <t>G20: G20 countries</t>
         </is>
       </c>
-      <c r="B71" s="10" t="n"/>
+      <c r="B71" s="10" t="inlineStr"/>
       <c r="C71" s="13" t="n">
         <v>2169345.5</v>
       </c>
@@ -12004,7 +12496,7 @@
           <t>ZNAM: North America</t>
         </is>
       </c>
-      <c r="B72" s="10" t="n"/>
+      <c r="B72" s="10" t="inlineStr"/>
       <c r="C72" s="12" t="n">
         <v>213342.9</v>
       </c>
@@ -12177,7 +12669,7 @@
           <t>ZEUR: Europe</t>
         </is>
       </c>
-      <c r="B73" s="10" t="n"/>
+      <c r="B73" s="10" t="inlineStr"/>
       <c r="C73" s="13" t="n">
         <v>309652.6</v>
       </c>
@@ -12442,10 +12934,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="10.33203125" customWidth="1" min="2" max="37"/>
+    <col width="10.28515625" customWidth="1" min="2" max="37"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -21938,20 +22430,1427 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="27.42578125" customWidth="1" min="1" max="1"/>
+    <col width="2.42578125" customWidth="1" min="2" max="2"/>
+    <col width="14.140625" customWidth="1" min="3" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" hidden="1">
+      <c r="A1" s="17">
+        <f>DotStatQuery(B1)</f>
+        <v/>
+      </c>
+      <c r="B1" s="17" t="inlineStr">
+        <is>
+          <t>&lt;?xml version="1.0" encoding="utf-16"?&gt;&lt;WebTableParameter xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://stats.oecd.org/OECDStatWS/2004/03/01/"&gt;&lt;DataTable Code="STANI4_2020" HasMetadata="true"&gt;&lt;Name LocaleIsoCode="en"&gt;STAN Industrial Analysis (2020 ed.)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;STAN pour l'Analyse Structurelle (éd. 2020)&lt;/Name&gt;&lt;Dimension Code="LOCATION" HasMetadata="false" CommonCode="LOCATION" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Country&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays&lt;/Name&gt;&lt;Member Code="AUS" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Australia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Australie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="AUT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Austria&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autriche&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="BEL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Belgium&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Belgique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHL" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Chile&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Chili&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CZE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Czech Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République tchèque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DNK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Denmark&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Danemark&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EST" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Estonia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Estonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FIN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Finland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Finlande&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="FRA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;France&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;France&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="DEU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Germany&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Allemagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="HUN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Hungary&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Hongrie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ITA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Italy&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Italie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="JPN" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Japan&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Japon&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="KOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Korea&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Corée&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LVA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Latvia&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lettonie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LTU" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Lithuania&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Lituanie&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="MEX" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Mexico&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Mexique&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NLD" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Netherlands&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Pays-Bas&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="NOR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Norway&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Norvège&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="PRT" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Portugal&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Portugal&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="SVK" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Slovak Republic&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;République slovaque&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="ESP" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Spain&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Espagne&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="CHE" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Switzerland&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Suisse&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GBR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United Kingdom&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Royaume-Uni&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="USA" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;United States&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;États-Unis&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="VAR" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Variable&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Variable&lt;/Name&gt;&lt;Member Code="PROD" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Production (gross output), current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Production (brute), prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="VALU" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Value added, current prices&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Valeur ajoutée, prix courants&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="LABR" HasMetadata="true" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Labour costs (compensation of employees)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Coût de la main-d'oeuvre (rémunération)&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="GOPS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Gross operating surplus and mixed income&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Excédent brut d'exploitation et revenu mixte&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="OTXS" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Other taxes less subsidies on production&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Autres impôts moins subventions sur la production&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="EMPN" HasMetadata="true" HasOnlyUnitMetadata="true" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt;Number of persons engaged (total employment)&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Actifs occupés - emploi total&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="IND" HasMetadata="false" Display="codesandlabels"&gt;&lt;Name LocaleIsoCode="en"&gt;Industry&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Activité&lt;/Name&gt;&lt;Member Code="D20" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Chemicals and chemical products [CE]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits chimiques [CE]&lt;/Name&gt;&lt;/Member&gt;&lt;Member Code="D21" HasMetadata="false" HasOnlyUnitMetadata="false" HasChild="0"&gt;&lt;Name LocaleIsoCode="en"&gt; Basic pharmaceutical products and pharmaceutical preparations [CF]&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Produits et préparations pharmaceutiques [CF]&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;Dimension Code="TIME" HasMetadata="false" CommonCode="TIME" Display="labels"&gt;&lt;Name LocaleIsoCode="en"&gt;Time&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;Temps&lt;/Name&gt;&lt;Member Code="2015" HasMetadata="false"&gt;&lt;Name LocaleIsoCode="en"&gt;2015&lt;/Name&gt;&lt;Name LocaleIsoCode="fr"&gt;2015&lt;/Name&gt;&lt;/Member&gt;&lt;/Dimension&gt;&lt;WBOSInformations&gt;&lt;TimeDimension WebTreeWasUsed="false"&gt;&lt;StartCodes Annual="2015" /&gt;&lt;EndCodes Annual="2015" /&gt;&lt;/TimeDimension&gt;&lt;/WBOSInformations&gt;&lt;Tabulation Axis="horizontal"&gt;&lt;Dimension Code="VAR" /&gt;&lt;Dimension Code="IND" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="vertical"&gt;&lt;Dimension Code="LOCATION" /&gt;&lt;/Tabulation&gt;&lt;Tabulation Axis="page"&gt;&lt;Dimension Code="TIME" /&gt;&lt;/Tabulation&gt;&lt;Formatting&gt;&lt;Labels LocaleIsoCode="en" /&gt;&lt;Power&gt;0&lt;/Power&gt;&lt;Decimals&gt;1&lt;/Decimals&gt;&lt;SkipEmptyLines&gt;true&lt;/SkipEmptyLines&gt;&lt;SkipEmptyCols&gt;false&lt;/SkipEmptyCols&gt;&lt;SkipLineHierarchy&gt;true&lt;/SkipLineHierarchy&gt;&lt;SkipColHierarchy&gt;false&lt;/SkipColHierarchy&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;/Formatting&gt;&lt;/DataTable&gt;&lt;Format&gt;&lt;ShowEmptyAxes&gt;true&lt;/ShowEmptyAxes&gt;&lt;Page&gt;1&lt;/Page&gt;&lt;EnableSort&gt;true&lt;/EnableSort&gt;&lt;IncludeFlagColumn&gt;false&lt;/IncludeFlagColumn&gt;&lt;IncludeTimeSeriesId&gt;false&lt;/IncludeTimeSeriesId&gt;&lt;DoBarChart&gt;false&lt;/DoBarChart&gt;&lt;FreezePanes&gt;true&lt;/FreezePanes&gt;&lt;MaxBarChartLen&gt;65&lt;/MaxBarChartLen&gt;&lt;/Format&gt;&lt;Query&gt;&lt;AbsoluteUri&gt;http://stats.oecd.org//View.aspx?QueryId=&amp;amp;QueryType=Public&amp;amp;Lang=en&lt;/AbsoluteUri&gt;&lt;/Query&gt;&lt;/WebTableParameter&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1">
+      <c r="A2" s="18" t="inlineStr">
+        <is>
+          <t>Dataset: STAN Industrial Analysis (2020 ed.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="74" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B3" s="62" t="n"/>
+      <c r="C3" s="75" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D3" s="64" t="n"/>
+      <c r="E3" s="64" t="n"/>
+      <c r="F3" s="64" t="n"/>
+      <c r="G3" s="64" t="n"/>
+      <c r="H3" s="64" t="n"/>
+      <c r="I3" s="64" t="n"/>
+      <c r="J3" s="64" t="n"/>
+      <c r="K3" s="64" t="n"/>
+      <c r="L3" s="64" t="n"/>
+      <c r="M3" s="64" t="n"/>
+      <c r="N3" s="62" t="n"/>
+    </row>
+    <row r="4" ht="24" customHeight="1">
+      <c r="A4" s="76" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B4" s="62" t="n"/>
+      <c r="C4" s="77" t="inlineStr">
+        <is>
+          <t>PROD: Production (gross output), current prices</t>
+        </is>
+      </c>
+      <c r="D4" s="62" t="n"/>
+      <c r="E4" s="77" t="inlineStr">
+        <is>
+          <t>VALU: Value added, current prices</t>
+        </is>
+      </c>
+      <c r="F4" s="62" t="n"/>
+      <c r="G4" s="77" t="inlineStr">
+        <is>
+          <t>LABR: Labour costs (compensation of employees)</t>
+        </is>
+      </c>
+      <c r="H4" s="62" t="n"/>
+      <c r="I4" s="77" t="inlineStr">
+        <is>
+          <t>GOPS: Gross operating surplus and mixed income</t>
+        </is>
+      </c>
+      <c r="J4" s="62" t="n"/>
+      <c r="K4" s="77" t="inlineStr">
+        <is>
+          <t>OTXS: Other taxes less subsidies on production</t>
+        </is>
+      </c>
+      <c r="L4" s="62" t="n"/>
+      <c r="M4" s="77" t="inlineStr">
+        <is>
+          <t>EMPN: Number of persons engaged (total employment)</t>
+        </is>
+      </c>
+      <c r="N4" s="62" t="n"/>
+    </row>
+    <row r="5" ht="63" customHeight="1">
+      <c r="A5" s="76" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="B5" s="62" t="n"/>
+      <c r="C5" s="19" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="D5" s="19" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="E5" s="19" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="F5" s="19" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="G5" s="19" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="H5" s="19" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="I5" s="19" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="J5" s="19" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="K5" s="19" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="L5" s="19" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>D20: Chemicals and chemical products [CE]</t>
+        </is>
+      </c>
+      <c r="N5" s="19" t="inlineStr">
+        <is>
+          <t>D21: Basic pharmaceutical products and pharmaceutical preparations [CF]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="20" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B6" s="21" t="inlineStr"/>
+      <c r="C6" s="21" t="inlineStr"/>
+      <c r="D6" s="21" t="inlineStr"/>
+      <c r="E6" s="21" t="inlineStr"/>
+      <c r="F6" s="21" t="inlineStr"/>
+      <c r="G6" s="21" t="inlineStr"/>
+      <c r="H6" s="21" t="inlineStr"/>
+      <c r="I6" s="21" t="inlineStr"/>
+      <c r="J6" s="21" t="inlineStr"/>
+      <c r="K6" s="21" t="inlineStr"/>
+      <c r="L6" s="21" t="inlineStr"/>
+      <c r="M6" s="21" t="inlineStr"/>
+      <c r="N6" s="21" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="22" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="B7" s="21" t="inlineStr"/>
+      <c r="C7" s="23" t="n">
+        <v>17390</v>
+      </c>
+      <c r="D7" s="23" t="n">
+        <v>10427</v>
+      </c>
+      <c r="E7" s="23" t="n">
+        <v>6061</v>
+      </c>
+      <c r="F7" s="23" t="n">
+        <v>3451</v>
+      </c>
+      <c r="G7" s="23" t="n">
+        <v>2949</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>1466</v>
+      </c>
+      <c r="I7" s="23" t="n">
+        <v>2957</v>
+      </c>
+      <c r="J7" s="23" t="n">
+        <v>1941</v>
+      </c>
+      <c r="K7" s="23" t="n">
+        <v>151</v>
+      </c>
+      <c r="L7" s="23" t="n">
+        <v>48</v>
+      </c>
+      <c r="M7" s="23" t="n">
+        <v>31.715</v>
+      </c>
+      <c r="N7" s="23" t="n">
+        <v>16.427</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B8" s="21" t="inlineStr"/>
+      <c r="C8" s="24" t="n">
+        <v>13142.207</v>
+      </c>
+      <c r="D8" s="24" t="n">
+        <v>4268.858</v>
+      </c>
+      <c r="E8" s="24" t="n">
+        <v>2750.683</v>
+      </c>
+      <c r="F8" s="24" t="n">
+        <v>2190.244</v>
+      </c>
+      <c r="G8" s="24" t="n">
+        <v>1169.679</v>
+      </c>
+      <c r="H8" s="24" t="n">
+        <v>999.325</v>
+      </c>
+      <c r="I8" s="24" t="n">
+        <v>1540.592</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>1143.929</v>
+      </c>
+      <c r="K8" s="24" t="n">
+        <v>40.412</v>
+      </c>
+      <c r="L8" s="24" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="M8" s="24" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="N8" s="24" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="22" t="inlineStr">
+        <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="B9" s="21" t="inlineStr"/>
+      <c r="C9" s="23" t="n">
+        <v>32184.7</v>
+      </c>
+      <c r="D9" s="23" t="n">
+        <v>15967.8</v>
+      </c>
+      <c r="E9" s="23" t="n">
+        <v>9208.1</v>
+      </c>
+      <c r="F9" s="23" t="n">
+        <v>5799.6</v>
+      </c>
+      <c r="G9" s="23" t="n">
+        <v>4169.7</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>2219.7</v>
+      </c>
+      <c r="I9" s="23" t="n">
+        <v>5127.8</v>
+      </c>
+      <c r="J9" s="23" t="n">
+        <v>3664</v>
+      </c>
+      <c r="K9" s="23" t="n">
+        <v>-89.40000000000001</v>
+      </c>
+      <c r="L9" s="23" t="n">
+        <v>-84.09999999999999</v>
+      </c>
+      <c r="M9" s="23" t="n">
+        <v>44</v>
+      </c>
+      <c r="N9" s="23" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="22" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="B10" s="21" t="inlineStr"/>
+      <c r="C10" s="24" t="n">
+        <v>4296151.79</v>
+      </c>
+      <c r="D10" s="24" t="n">
+        <v>1176806.697</v>
+      </c>
+      <c r="E10" s="24" t="n">
+        <v>1262313.613</v>
+      </c>
+      <c r="F10" s="24" t="n">
+        <v>414529.823</v>
+      </c>
+      <c r="G10" s="24" t="n">
+        <v>410617.86</v>
+      </c>
+      <c r="H10" s="24" t="n">
+        <v>197186.617</v>
+      </c>
+      <c r="I10" s="24" t="n">
+        <v>825702.421</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>207059.061</v>
+      </c>
+      <c r="K10" s="24" t="n">
+        <v>25993.349</v>
+      </c>
+      <c r="L10" s="24" t="n">
+        <v>10284.14</v>
+      </c>
+      <c r="M10" s="24" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="N10" s="24" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="22" t="inlineStr">
+        <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr"/>
+      <c r="C11" s="23" t="n">
+        <v>155577</v>
+      </c>
+      <c r="D11" s="23" t="n">
+        <v>41847</v>
+      </c>
+      <c r="E11" s="23" t="n">
+        <v>40096</v>
+      </c>
+      <c r="F11" s="23" t="n">
+        <v>17707</v>
+      </c>
+      <c r="G11" s="23" t="n">
+        <v>14359</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <v>4980</v>
+      </c>
+      <c r="I11" s="23" t="n">
+        <v>25779</v>
+      </c>
+      <c r="J11" s="23" t="n">
+        <v>12717</v>
+      </c>
+      <c r="K11" s="23" t="n">
+        <v>-42</v>
+      </c>
+      <c r="L11" s="23" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" s="23" t="n">
+        <v>30.922</v>
+      </c>
+      <c r="N11" s="23" t="n">
+        <v>11.698</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="22" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="B12" s="21" t="inlineStr"/>
+      <c r="C12" s="24" t="n">
+        <v>41360</v>
+      </c>
+      <c r="D12" s="24" t="n">
+        <v>92114</v>
+      </c>
+      <c r="E12" s="24" t="n">
+        <v>18022</v>
+      </c>
+      <c r="F12" s="24" t="n">
+        <v>60233</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>6417</v>
+      </c>
+      <c r="H12" s="24" t="n">
+        <v>16429</v>
+      </c>
+      <c r="I12" s="24" t="n">
+        <v>11520</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>43707</v>
+      </c>
+      <c r="K12" s="24" t="n">
+        <v>85</v>
+      </c>
+      <c r="L12" s="24" t="n">
+        <v>98</v>
+      </c>
+      <c r="M12" s="24" t="n">
+        <v>11.451</v>
+      </c>
+      <c r="N12" s="24" t="n">
+        <v>22.722</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="22" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="B13" s="21" t="inlineStr"/>
+      <c r="C13" s="23" t="n">
+        <v>429.8</v>
+      </c>
+      <c r="D13" s="23" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="F13" s="23" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="23" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I13" s="23" t="n">
+        <v>56</v>
+      </c>
+      <c r="J13" s="23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="23" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L13" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N13" s="23" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="22" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B14" s="21" t="inlineStr"/>
+      <c r="C14" s="24" t="n">
+        <v>7559</v>
+      </c>
+      <c r="D14" s="24" t="n">
+        <v>1835</v>
+      </c>
+      <c r="E14" s="24" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" s="24" t="n">
+        <v>1315</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>775</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <v>264</v>
+      </c>
+      <c r="I14" s="24" t="n">
+        <v>1266</v>
+      </c>
+      <c r="J14" s="24" t="n">
+        <v>1056</v>
+      </c>
+      <c r="K14" s="24" t="n">
+        <v>-19</v>
+      </c>
+      <c r="L14" s="24" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M14" s="24" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="N14" s="24" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="22" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B15" s="21" t="inlineStr"/>
+      <c r="C15" s="23" t="n">
+        <v>64869</v>
+      </c>
+      <c r="D15" s="23" t="n">
+        <v>26029</v>
+      </c>
+      <c r="E15" s="23" t="n">
+        <v>19595</v>
+      </c>
+      <c r="F15" s="23" t="n">
+        <v>12412</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>8882</v>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>4218</v>
+      </c>
+      <c r="I15" s="23" t="n">
+        <v>9941</v>
+      </c>
+      <c r="J15" s="23" t="n">
+        <v>7853</v>
+      </c>
+      <c r="K15" s="23" t="n">
+        <v>772</v>
+      </c>
+      <c r="L15" s="23" t="n">
+        <v>341</v>
+      </c>
+      <c r="M15" s="23" t="n">
+        <v>111</v>
+      </c>
+      <c r="N15" s="23" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="22" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="B16" s="21" t="inlineStr"/>
+      <c r="C16" s="24" t="n">
+        <v>137727</v>
+      </c>
+      <c r="D16" s="24" t="n">
+        <v>46535</v>
+      </c>
+      <c r="E16" s="24" t="n">
+        <v>45580</v>
+      </c>
+      <c r="F16" s="24" t="n">
+        <v>22858</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>24028</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <v>8909</v>
+      </c>
+      <c r="I16" s="24" t="n">
+        <v>21374</v>
+      </c>
+      <c r="J16" s="24" t="n">
+        <v>13883</v>
+      </c>
+      <c r="K16" s="24" t="n">
+        <v>178</v>
+      </c>
+      <c r="L16" s="24" t="n">
+        <v>66</v>
+      </c>
+      <c r="M16" s="24" t="n">
+        <v>348</v>
+      </c>
+      <c r="N16" s="24" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="22" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="inlineStr"/>
+      <c r="C17" s="23" t="n">
+        <v>1561214</v>
+      </c>
+      <c r="D17" s="23" t="n">
+        <v>950652</v>
+      </c>
+      <c r="E17" s="23" t="n">
+        <v>392029</v>
+      </c>
+      <c r="F17" s="23" t="n">
+        <v>450794</v>
+      </c>
+      <c r="G17" s="23" t="n">
+        <v>89594</v>
+      </c>
+      <c r="H17" s="23" t="n">
+        <v>149504</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>294084</v>
+      </c>
+      <c r="J17" s="23" t="n">
+        <v>298569</v>
+      </c>
+      <c r="K17" s="23" t="n">
+        <v>8351</v>
+      </c>
+      <c r="L17" s="23" t="n">
+        <v>2721</v>
+      </c>
+      <c r="M17" s="23" t="n">
+        <v>16.291</v>
+      </c>
+      <c r="N17" s="23" t="n">
+        <v>20.789</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="22" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B18" s="21" t="inlineStr"/>
+      <c r="C18" s="24" t="n">
+        <v>50506.5</v>
+      </c>
+      <c r="D18" s="24" t="n">
+        <v>25044.1</v>
+      </c>
+      <c r="E18" s="24" t="n">
+        <v>10896.2</v>
+      </c>
+      <c r="F18" s="24" t="n">
+        <v>8888.5</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>5723.3</v>
+      </c>
+      <c r="H18" s="24" t="n">
+        <v>4034.3</v>
+      </c>
+      <c r="I18" s="24" t="n">
+        <v>4864.1</v>
+      </c>
+      <c r="J18" s="24" t="n">
+        <v>4486.5</v>
+      </c>
+      <c r="K18" s="24" t="n">
+        <v>308.8</v>
+      </c>
+      <c r="L18" s="24" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="M18" s="24" t="n">
+        <v>109.7</v>
+      </c>
+      <c r="N18" s="24" t="n">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="22" t="inlineStr">
+        <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="B19" s="21" t="inlineStr"/>
+      <c r="C19" s="23" t="n">
+        <v>22424500</v>
+      </c>
+      <c r="D19" s="23" t="n">
+        <v>9255400</v>
+      </c>
+      <c r="E19" s="23" t="n">
+        <v>8516400</v>
+      </c>
+      <c r="F19" s="23" t="n">
+        <v>3015900</v>
+      </c>
+      <c r="G19" s="23" t="n">
+        <v>2266700</v>
+      </c>
+      <c r="H19" s="23" t="n">
+        <v>802700</v>
+      </c>
+      <c r="I19" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="J19" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="K19" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="L19" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="M19" s="23" t="n">
+        <v>328</v>
+      </c>
+      <c r="N19" s="23" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="22" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="B20" s="21" t="inlineStr"/>
+      <c r="C20" s="24" t="n">
+        <v>144820316</v>
+      </c>
+      <c r="D20" s="24" t="n">
+        <v>17629352</v>
+      </c>
+      <c r="E20" s="24" t="n">
+        <v>38090317</v>
+      </c>
+      <c r="F20" s="24" t="n">
+        <v>6699394</v>
+      </c>
+      <c r="G20" s="24" t="n">
+        <v>9391789</v>
+      </c>
+      <c r="H20" s="24" t="n">
+        <v>1980796</v>
+      </c>
+      <c r="I20" s="24" t="n">
+        <v>28334763</v>
+      </c>
+      <c r="J20" s="24" t="n">
+        <v>4673860</v>
+      </c>
+      <c r="K20" s="24" t="n">
+        <v>363765</v>
+      </c>
+      <c r="L20" s="24" t="n">
+        <v>44738</v>
+      </c>
+      <c r="M20" s="24" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="N20" s="24" t="n">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="22" t="inlineStr">
+        <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="B21" s="21" t="inlineStr"/>
+      <c r="C21" s="23" t="n">
+        <v>245.93</v>
+      </c>
+      <c r="D21" s="23" t="n">
+        <v>156.45</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>61.083</v>
+      </c>
+      <c r="F21" s="23" t="n">
+        <v>78.70399999999999</v>
+      </c>
+      <c r="G21" s="23" t="n">
+        <v>33.743</v>
+      </c>
+      <c r="H21" s="23" t="n">
+        <v>41.521</v>
+      </c>
+      <c r="I21" s="23" t="n">
+        <v>26.464</v>
+      </c>
+      <c r="J21" s="23" t="n">
+        <v>36.499</v>
+      </c>
+      <c r="K21" s="23" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="L21" s="23" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="M21" s="23" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="N21" s="23" t="n">
+        <v>2.351</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="25" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="B22" s="21" t="inlineStr"/>
+      <c r="C22" s="24" t="n">
+        <v>2026.5</v>
+      </c>
+      <c r="D22" s="24" t="n">
+        <v>215.7</v>
+      </c>
+      <c r="E22" s="24" t="n">
+        <v>532.5</v>
+      </c>
+      <c r="F22" s="24" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="G22" s="24" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="H22" s="24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I22" s="24" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="J22" s="24" t="n">
+        <v>151.7</v>
+      </c>
+      <c r="K22" s="24" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="L22" s="24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N22" s="24" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="22" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr"/>
+      <c r="C23" s="23" t="n">
+        <v>720647.2610000001</v>
+      </c>
+      <c r="D23" s="23" t="n">
+        <v>275739.487</v>
+      </c>
+      <c r="E23" s="23" t="n">
+        <v>210925.784</v>
+      </c>
+      <c r="F23" s="23" t="n">
+        <v>65884.478</v>
+      </c>
+      <c r="G23" s="23" t="n">
+        <v>38561.97</v>
+      </c>
+      <c r="H23" s="23" t="n">
+        <v>25493.958</v>
+      </c>
+      <c r="I23" s="23" t="n">
+        <v>170135.56</v>
+      </c>
+      <c r="J23" s="23" t="n">
+        <v>39511.929</v>
+      </c>
+      <c r="K23" s="23" t="n">
+        <v>2228.254</v>
+      </c>
+      <c r="L23" s="23" t="n">
+        <v>878.591</v>
+      </c>
+      <c r="M23" s="23" t="n">
+        <v>155.355</v>
+      </c>
+      <c r="N23" s="23" t="n">
+        <v>118.422</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="22" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B24" s="21" t="inlineStr"/>
+      <c r="C24" s="24" t="n">
+        <v>41782</v>
+      </c>
+      <c r="D24" s="24" t="n">
+        <v>5784</v>
+      </c>
+      <c r="E24" s="24" t="n">
+        <v>9497</v>
+      </c>
+      <c r="F24" s="24" t="n">
+        <v>2423</v>
+      </c>
+      <c r="G24" s="24" t="n">
+        <v>3475</v>
+      </c>
+      <c r="H24" s="24" t="n">
+        <v>902</v>
+      </c>
+      <c r="I24" s="24" t="n">
+        <v>6007</v>
+      </c>
+      <c r="J24" s="24" t="n">
+        <v>1552</v>
+      </c>
+      <c r="K24" s="24" t="n">
+        <v>15</v>
+      </c>
+      <c r="L24" s="24" t="n">
+        <v>-31</v>
+      </c>
+      <c r="M24" s="24" t="n">
+        <v>43</v>
+      </c>
+      <c r="N24" s="24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="22" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr"/>
+      <c r="C25" s="23" t="n">
+        <v>56741</v>
+      </c>
+      <c r="D25" s="23" t="n">
+        <v>12448</v>
+      </c>
+      <c r="E25" s="23" t="n">
+        <v>15300</v>
+      </c>
+      <c r="F25" s="23" t="n">
+        <v>6492</v>
+      </c>
+      <c r="G25" s="23" t="n">
+        <v>7609</v>
+      </c>
+      <c r="H25" s="23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="I25" s="23" t="n">
+        <v>7709</v>
+      </c>
+      <c r="J25" s="23" t="n">
+        <v>4473</v>
+      </c>
+      <c r="K25" s="23" t="n">
+        <v>-18</v>
+      </c>
+      <c r="L25" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N25" s="23" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="22" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B26" s="21" t="inlineStr"/>
+      <c r="C26" s="24" t="n">
+        <v>4356.484</v>
+      </c>
+      <c r="D26" s="24" t="n">
+        <v>1175.929</v>
+      </c>
+      <c r="E26" s="24" t="n">
+        <v>878.677</v>
+      </c>
+      <c r="F26" s="24" t="n">
+        <v>505.164</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>356.761</v>
+      </c>
+      <c r="H26" s="24" t="n">
+        <v>204.215</v>
+      </c>
+      <c r="I26" s="24" t="n">
+        <v>503.592</v>
+      </c>
+      <c r="J26" s="24" t="n">
+        <v>225.114</v>
+      </c>
+      <c r="K26" s="24" t="n">
+        <v>18.324</v>
+      </c>
+      <c r="L26" s="24" t="n">
+        <v>75.83499999999999</v>
+      </c>
+      <c r="M26" s="24" t="n">
+        <v>12.057</v>
+      </c>
+      <c r="N26" s="24" t="n">
+        <v>6.227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="22" t="inlineStr">
+        <is>
+          <t>Slovak Republic</t>
+        </is>
+      </c>
+      <c r="B27" s="21" t="inlineStr"/>
+      <c r="C27" s="23" t="n">
+        <v>1907.855</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <v>209.029</v>
+      </c>
+      <c r="E27" s="23" t="n">
+        <v>646.14</v>
+      </c>
+      <c r="F27" s="23" t="n">
+        <v>55.09</v>
+      </c>
+      <c r="G27" s="23" t="n">
+        <v>156.3</v>
+      </c>
+      <c r="H27" s="23" t="n">
+        <v>45.83</v>
+      </c>
+      <c r="I27" s="23" t="n">
+        <v>492.097</v>
+      </c>
+      <c r="J27" s="23" t="n">
+        <v>9.335000000000001</v>
+      </c>
+      <c r="K27" s="23" t="n">
+        <v>-2.265</v>
+      </c>
+      <c r="L27" s="23" t="n">
+        <v>-0.073</v>
+      </c>
+      <c r="M27" s="23" t="n">
+        <v>8.592000000000001</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>2.228</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B28" s="21" t="inlineStr"/>
+      <c r="C28" s="24" t="n">
+        <v>36741</v>
+      </c>
+      <c r="D28" s="24" t="n">
+        <v>15161</v>
+      </c>
+      <c r="E28" s="24" t="n">
+        <v>8061</v>
+      </c>
+      <c r="F28" s="24" t="n">
+        <v>6833</v>
+      </c>
+      <c r="G28" s="24" t="n">
+        <v>3954</v>
+      </c>
+      <c r="H28" s="24" t="n">
+        <v>2115</v>
+      </c>
+      <c r="I28" s="24" t="n">
+        <v>4057</v>
+      </c>
+      <c r="J28" s="24" t="n">
+        <v>4711</v>
+      </c>
+      <c r="K28" s="24" t="n">
+        <v>50</v>
+      </c>
+      <c r="L28" s="24" t="n">
+        <v>7</v>
+      </c>
+      <c r="M28" s="24" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="N28" s="24" t="n">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="22" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr"/>
+      <c r="C29" s="23" t="n">
+        <v>23031.4167</v>
+      </c>
+      <c r="D29" s="23" t="n">
+        <v>80032.2044</v>
+      </c>
+      <c r="E29" s="23" t="n">
+        <v>7470.1342</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <v>28686.7759</v>
+      </c>
+      <c r="G29" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="H29" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="I29" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="J29" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="K29" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="L29" s="23" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="M29" s="23" t="n">
+        <v>29.101</v>
+      </c>
+      <c r="N29" s="23" t="n">
+        <v>46.713</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="22" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B30" s="21" t="inlineStr"/>
+      <c r="C30" s="24" t="n">
+        <v>32794</v>
+      </c>
+      <c r="D30" s="24" t="n">
+        <v>21282</v>
+      </c>
+      <c r="E30" s="24" t="n">
+        <v>12217</v>
+      </c>
+      <c r="F30" s="24" t="n">
+        <v>11848</v>
+      </c>
+      <c r="G30" s="24" t="n">
+        <v>6748</v>
+      </c>
+      <c r="H30" s="24" t="n">
+        <v>4114</v>
+      </c>
+      <c r="I30" s="24" t="n">
+        <v>5410</v>
+      </c>
+      <c r="J30" s="24" t="n">
+        <v>7721</v>
+      </c>
+      <c r="K30" s="24" t="n">
+        <v>59</v>
+      </c>
+      <c r="L30" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="M30" s="24" t="n">
+        <v>96.19</v>
+      </c>
+      <c r="N30" s="24" t="n">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="22" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr"/>
+      <c r="C31" s="23" t="n">
+        <v>515221</v>
+      </c>
+      <c r="D31" s="23" t="n">
+        <v>266206</v>
+      </c>
+      <c r="E31" s="23" t="n">
+        <v>184192</v>
+      </c>
+      <c r="F31" s="23" t="n">
+        <v>143569</v>
+      </c>
+      <c r="G31" s="23" t="n">
+        <v>54606</v>
+      </c>
+      <c r="H31" s="23" t="n">
+        <v>45877</v>
+      </c>
+      <c r="I31" s="23" t="n">
+        <v>120465</v>
+      </c>
+      <c r="J31" s="23" t="n">
+        <v>94460</v>
+      </c>
+      <c r="K31" s="23" t="n">
+        <v>9121</v>
+      </c>
+      <c r="L31" s="23" t="n">
+        <v>3232</v>
+      </c>
+      <c r="M31" s="23" t="n">
+        <v>534</v>
+      </c>
+      <c r="N31" s="23" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="26" t="inlineStr">
+        <is>
+          <t>Data extracted on 05 Oct 2020 23:14 UTC (GMT) from OECD.Stat</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="27" t="inlineStr">
+        <is>
+          <t>Legend:</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="inlineStr">
+        <is>
+          <t>c:</t>
+        </is>
+      </c>
+      <c r="B34" s="27" t="inlineStr">
+        <is>
+          <t>Estimates based on national Supply and Use tables (SUTs) or Input-Output tables</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>b:</t>
+        </is>
+      </c>
+      <c r="B35" s="27" t="inlineStr">
+        <is>
+          <t>Estimates based on detailed Structural Business Statistics (SBS) or industry census data: either published by OECD (ISIC Rev.4) and/or Eurostat (NACE Rev.2) or drawn directly from national sources (and converted from national industry classifications to ISIC Rev.4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C3:N3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[PROD]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[VALU]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[LABR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="I4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[GOPS]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[OTXS]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="M4" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[VAR].[EMPN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUS]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[AUT]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[BEL]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A10" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHL]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A11" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CZE]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A12" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DNK]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A13" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[EST]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A14" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FIN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A15" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[FRA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A16" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[DEU]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A17" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[HUN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A18" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ITA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A19" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[JPN]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A20" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[KOR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A21" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[LVA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A23" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[MEX]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A24" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NLD]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A25" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[NOR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A26" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[PRT]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A27" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=%5bLOCATION%5d.%5bSVK%5d&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A28" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[ESP]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A29" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[CHE]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A30" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[GBR]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" display="http://stats.oecd.org/OECDStat_Metadata/ShowMetadata.ashx?Dataset=STANI4_2020&amp;Coords=[LOCATION].[USA]&amp;ShowOnWeb=true&amp;Lang=en" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" display="https://stats-2.oecd.org/index.aspx?DatasetCode=STANI4_2020" r:id="rId32"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20.1640625" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="37"/>
+    <col width="20.140625" customWidth="1" min="1" max="1"/>
+    <col width="10.140625" customWidth="1" min="2" max="38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -22005,147 +23904,151 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
-        <is>
-          <t>ISIC 20T21</t>
-        </is>
-      </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="K1" s="29" t="inlineStr">
+        <is>
+          <t>ISIC 20</t>
+        </is>
+      </c>
+      <c r="L1" s="29" t="inlineStr">
+        <is>
+          <t>ISIC 21</t>
+        </is>
+      </c>
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>ISIC 23</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>ISIC 24</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>ISIC 25</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>ISIC 26</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>ISIC 27</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>ISIC 28</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>ISIC 29</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>ISIC 30</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>ISIC 35T39</t>
         </is>
       </c>
-      <c r="W1" s="4" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>ISIC 41T43</t>
         </is>
       </c>
-      <c r="X1" s="4" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>ISIC 45T47</t>
         </is>
       </c>
-      <c r="Y1" s="4" t="inlineStr">
+      <c r="Z1" s="4" t="inlineStr">
         <is>
           <t>ISIC 49T53</t>
         </is>
       </c>
-      <c r="Z1" s="4" t="inlineStr">
+      <c r="AA1" s="4" t="inlineStr">
         <is>
           <t>ISIC 55T56</t>
         </is>
       </c>
-      <c r="AA1" s="4" t="inlineStr">
+      <c r="AB1" s="4" t="inlineStr">
         <is>
           <t>ISIC 58T60</t>
         </is>
       </c>
-      <c r="AB1" s="4" t="inlineStr">
+      <c r="AC1" s="4" t="inlineStr">
         <is>
           <t>ISIC 61</t>
         </is>
       </c>
-      <c r="AC1" s="4" t="inlineStr">
+      <c r="AD1" s="4" t="inlineStr">
         <is>
           <t>ISIC 62T63</t>
         </is>
       </c>
-      <c r="AD1" s="4" t="inlineStr">
+      <c r="AE1" s="4" t="inlineStr">
         <is>
           <t>ISIC 64T66</t>
         </is>
       </c>
-      <c r="AE1" s="4" t="inlineStr">
+      <c r="AF1" s="4" t="inlineStr">
         <is>
           <t>ISIC 68</t>
         </is>
       </c>
-      <c r="AF1" s="4" t="inlineStr">
+      <c r="AG1" s="4" t="inlineStr">
         <is>
           <t>ISIC 69T82</t>
         </is>
       </c>
-      <c r="AG1" s="4" t="inlineStr">
+      <c r="AH1" s="4" t="inlineStr">
         <is>
           <t>ISIC 84</t>
         </is>
       </c>
-      <c r="AH1" s="4" t="inlineStr">
+      <c r="AI1" s="4" t="inlineStr">
         <is>
           <t>ISIC 85</t>
         </is>
       </c>
-      <c r="AI1" s="4" t="inlineStr">
+      <c r="AJ1" s="4" t="inlineStr">
         <is>
           <t>ISIC 86T88</t>
         </is>
       </c>
-      <c r="AJ1" s="4" t="inlineStr">
+      <c r="AK1" s="4" t="inlineStr">
         <is>
           <t>ISIC 90T96</t>
         </is>
       </c>
-      <c r="AK1" s="4" t="inlineStr">
+      <c r="AL1" s="4" t="inlineStr">
         <is>
           <t>ISIC 97T98</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
+      <c r="A2">
+        <f>'Filtered OECD Data'!A38</f>
+        <v/>
       </c>
       <c r="B2" t="n">
         <v>1948</v>
@@ -22174,85 +24077,88 @@
       <c r="J2" t="n">
         <v>322</v>
       </c>
-      <c r="K2" t="n">
-        <v>2513</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="K2" s="30" t="n">
+        <v>1716.232067510549</v>
+      </c>
+      <c r="L2" s="30" t="n">
+        <v>796.7679324894515</v>
+      </c>
+      <c r="M2" t="n">
         <v>3551</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>3805</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1350</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>6670</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>3646</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>9379</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>2222</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>856</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>823</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>8369</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>4391</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>107829</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>221536</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>117807</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>331566</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>10704</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>6105</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>3476</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>87208</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>107764</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>77561</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>174655</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>18034</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>147706</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>58853</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>10508</v>
       </c>
     </row>
